--- a/SWD User Guide.xlsx
+++ b/SWD User Guide.xlsx
@@ -34,7 +34,7 @@
   <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId13"/>
-    <pivotCache cacheId="7" r:id="rId14"/>
+    <pivotCache cacheId="13" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7959" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7966" uniqueCount="1227">
   <si>
     <t>pod_l2a</t>
   </si>
@@ -3830,6 +3830,44 @@
   </si>
   <si>
     <t>replaced with cprd list - https://www.phpc.cam.ac.uk/pcu/research/research-groups/crmh/cprd_cam/codelists/v11/</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>Date that social prescribing referral made</t>
+  </si>
+  <si>
+    <t>Date that social prescribing offered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date that social prescribing declined </t>
+  </si>
+  <si>
+    <t>Social Prescribing</t>
+  </si>
+  <si>
+    <t>SNOMED code = 871731000000106 - written back to EMIS from Elemental software</t>
+  </si>
+  <si>
+    <t>SNOMED code = 871711000000103  - written back to EMIS from Elemental software</t>
+  </si>
+  <si>
+    <t>SNOMED code = 871691000000100  - written back to EMIS from Elemental software</t>
+  </si>
+  <si>
+    <t>Optum research cohort for Network 4 practice - temporary data item</t>
+  </si>
+  <si>
+    <t>SNOMED code description = 'eligible for participation in research study'
+N.B. volume of activity is lower than expected so needs verifying as accurate before used in analysis.</t>
+  </si>
+  <si>
+    <t>Data types of columns sup_metric_15 and sup_metric_16 changed to datetime to accommodate new social prescribing data populated into those columns.
+sup_metric_14 column populated with date that social prescribing referral made (data type for this not amended as will contain text characters in future load.
+sup_metric_15 column populated with date that social prescribing offered
+sup_metric_16 column populated with date that social prescribing declined
+sup_metric_17 column populated with flag to indicate presence of SNOMED code for 'eligible for participation in research study'</t>
   </si>
 </sst>
 </file>
@@ -4199,9 +4237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4244,12 +4279,5160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="706">
+  <dxfs count="2421">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -5325,6 +10508,9 @@
       <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6364,9 +11550,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6787,7 +11970,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Evans Ben (BNSSG CCG)" refreshedDate="44376.843814236112" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="358">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Evans Ben (BNSSG CCG)" refreshedDate="44400.685997106484" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="358">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -7185,7 +12368,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="380">
+      <sharedItems containsBlank="1" count="384">
         <s v="Pseudo NHS number"/>
         <s v="Principal descriptor for point of delivery - see POD Mapping worksheet for more details"/>
         <s v="Medial descriptor for point of delivery - see POD Mapping worksheet for more details"/>
@@ -7506,66 +12689,70 @@
         <s v="Covid-19 vaccine cohort 6 eligibility"/>
         <s v="Psychoactive substance misuse (NOT ALCOHOL) indicator"/>
         <s v="Pervasive developmental disorder indicator"/>
+        <s v="Date that social prescribing referral made"/>
+        <s v="Date that social prescribing offered"/>
+        <s v="Date that social prescribing declined "/>
+        <s v="Optum research cohort for Network 4 practice - temporary data item"/>
         <s v="Spare field - not currently populated"/>
+        <s v="barriers to housing indicator" u="1"/>
+        <s v="Covid-19 negative antibody test" u="1"/>
+        <s v="Covid-19 positive antibody test" u="1"/>
+        <s v="count of children in receipt of child benefit as at 31 august 2019" u="1"/>
+        <s v="count of families in receipt of child benefit as at 31 august 2019" u="1"/>
         <m u="1"/>
-        <s v="the risk of personal and material victimisation" u="1"/>
         <s v="violence and sexual offence incidents reported to the police per 1000 residents in a 12mth period" u="1"/>
-        <s v="issues relating to access to housing (such as affordability)" u="1"/>
-        <s v="proportion of young people aged under 21 not entering higher education" u="1"/>
+        <s v="count of locations registered with the food standards agency where the description is 'takeaway of sandwich bar'" u="1"/>
+        <s v="‘premature death’, defined as death before the age of 75 from any cause (the commonly used measure of premature death)" u="1"/>
         <s v="Covid-19 negative antigen test" u="1"/>
         <s v="Covid-19 positive antigen test" u="1"/>
-        <s v="measures the quality of housing" u="1"/>
-        <s v="anti-social behaviour incidents reported to the police per 1000 residents in a 12mth period" u="1"/>
-        <s v="a component of the housing affordability indicator" u="1"/>
-        <s v="estimate of concentration of benzene" u="1"/>
+        <s v="the risk of personal and material victimisation" u="1"/>
+        <s v="employment deprivation" u="1"/>
+        <s v="burglary incidents reported to the police per 1000 residents in a 12mth period" u="1"/>
+        <s v="work limiting morbidity and disability, based on those receiving benefits due to inability to work through ill health" u="1"/>
+        <s v="count of children aged 5 to 10 years old in receipt of child benefit as at 31 august 2019" u="1"/>
+        <s v="risk of premature death and the impairment of quality of life through poor physical or mental health" u="1"/>
+        <s v="the rate of acceptances for housing assistance under the homelessness provisions of housing legislation" u="1"/>
+        <s v="robbery incidents reported to the police per 1000 residents in a 12mth period" u="1"/>
+        <s v="count of families with one child in receipt of child benefit as at 31 august 2019" u="1"/>
+        <s v="Organ transplany" u="1"/>
         <s v="income deprivation" u="1"/>
-        <s v="average road distance to primary school measured in kilometres" u="1"/>
-        <s v="housing which is expensive to heat" u="1"/>
+        <s v="the lack of attainment and skills in the local population" u="1"/>
+        <s v="proportion of young people aged under 21 not entering higher education" u="1"/>
+        <s v="inability to afford to enter owner-occupation or the private rental market" u="1"/>
+        <s v="estimate of concentration of sulphur dioxide" u="1"/>
+        <s v="the proportion of households in a LSOA that are classed as overcrowded" u="1"/>
+        <s v="quality of the local environment" u="1"/>
         <s v="count of families with three or more  children in receipt of child benefit as at 31 august 2019" u="1"/>
-        <s v="Covid-19 negative antibody test" u="1"/>
-        <s v="Covid-19 positive antibody test" u="1"/>
-        <s v="reported accidents that involve death or personal injury to a pedestrian or cyclist" u="1"/>
-        <s v="estimate of the concentration of the four pollutants nitrogen dioxide, benzene, sulphur dioxide and particulates" u="1"/>
+        <s v="estimate of concentration of nitrogen dioxide" u="1"/>
         <s v="townsend deprivation measure of material deprivation" u="1"/>
-        <s v="average road distance to post office measured in kilometres" u="1"/>
-        <s v="proportion of young people not staying on in school or non-advanced education above age 16, based on receipt of child benefit" u="1"/>
-        <s v="robbery incidents reported to the police per 1000 residents in a 12mth period" u="1"/>
-        <s v="quality of the local environment" u="1"/>
-        <s v="‘premature death’, defined as death before the age of 75 from any cause (the commonly used measure of premature death)" u="1"/>
-        <s v="the proportion of households in a LSOA that are classed as overcrowded" u="1"/>
-        <s v="average road distance to general store or supermarket measured in kilometres" u="1"/>
-        <s v="estimate of concentration of nitrogen dioxide" u="1"/>
-        <s v="count of children aged 5 to 10 years old in receipt of child benefit as at 31 august 2019" u="1"/>
-        <s v="physical proximity of local services" u="1"/>
-        <s v="the rate of acceptances for housing assistance under the homelessness provisions of housing legislation" u="1"/>
-        <s v="employment deprivation" u="1"/>
-        <s v="air quality and road traffic accidents" u="1"/>
-        <s v="level of emergency admissions to hospital, based on administrative records of inpatient admissions" u="1"/>
-        <s v="Organ transplany" u="1"/>
-        <s v="work limiting morbidity and disability, based on those receiving benefits due to inability to work through ill health" u="1"/>
-        <s v="education, skills and training deprivation - working age adults" u="1"/>
-        <s v="proportion of all children aged 0 to 15 living in income deprived families" u="1"/>
-        <s v="proportion of all those aged 60 or over living in income deprived families" u="1"/>
-        <s v="burglary incidents reported to the police per 1000 residents in a 12mth period" u="1"/>
-        <s v="the lack of attainment and skills in the local population" u="1"/>
-        <s v="count of children in receipt of child benefit as at 31 august 2019" u="1"/>
-        <s v="count of families in receipt of child benefit as at 31 august 2019" u="1"/>
-        <s v="a modelled estimate of the proportion of social and private homes that fail to meet the decent homes standard" u="1"/>
-        <s v="education, skills and training deprivation - children &amp; young people" u="1"/>
-        <s v="inability to afford to enter owner-occupation or the private rental market" u="1"/>
-        <s v="broad measure of levels of mental ill health in the local population" u="1"/>
-        <s v="count of locations registered with the food standards agency where the description is 'takeaway of sandwich bar'" u="1"/>
-        <s v="proportion of working-age adults (women aged 25 to 59 and men aged 25 to 64) with no or low qualifications combined with the proportion of the working-age population who cannot speak english or cannot speak english ‘well’" u="1"/>
+        <s v="issues relating to access to housing (such as affordability)" u="1"/>
         <s v="count of children aged 11 to 15 years old in receipt of child benefit as at 31 august 2019" u="1"/>
         <s v="count of children aged 16 to 19 years old in receipt of child benefit as at 31 august 2019" u="1"/>
-        <s v="count of families with one child in receipt of child benefit as at 31 august 2019" u="1"/>
-        <s v="estimate of concentration of sulphur dioxide" u="1"/>
-        <s v="estimate of concentration of particulates" u="1"/>
+        <s v="physical proximity of local services" u="1"/>
         <s v="count of children under 5 years old in receipt of child benefit as at 31 august 2019" u="1"/>
         <s v="count of families with two children in receipt of child benefit as at 31 august 2019" u="1"/>
         <s v="average road distance to GP surgery measured in kilometres" u="1"/>
-        <s v="risk of premature death and the impairment of quality of life through poor physical or mental health" u="1"/>
-        <s v="barriers to housing indicator" u="1"/>
+        <s v="average road distance to general store or supermarket measured in kilometres" u="1"/>
+        <s v="average road distance to primary school measured in kilometres" u="1"/>
+        <s v="proportion of all children aged 0 to 15 living in income deprived families" u="1"/>
+        <s v="proportion of all those aged 60 or over living in income deprived families" u="1"/>
+        <s v="average road distance to post office measured in kilometres" u="1"/>
+        <s v="education, skills and training deprivation - children &amp; young people" u="1"/>
+        <s v="a modelled estimate of the proportion of social and private homes that fail to meet the decent homes standard" u="1"/>
+        <s v="measures the quality of housing" u="1"/>
+        <s v="estimate of concentration of benzene" u="1"/>
+        <s v="broad measure of levels of mental ill health in the local population" u="1"/>
+        <s v="air quality and road traffic accidents" u="1"/>
+        <s v="estimate of concentration of particulates" u="1"/>
+        <s v="anti-social behaviour incidents reported to the police per 1000 residents in a 12mth period" u="1"/>
+        <s v="proportion of young people not staying on in school or non-advanced education above age 16, based on receipt of child benefit" u="1"/>
+        <s v="proportion of working-age adults (women aged 25 to 59 and men aged 25 to 64) with no or low qualifications combined with the proportion of the working-age population who cannot speak english or cannot speak english ‘well’" u="1"/>
+        <s v="reported accidents that involve death or personal injury to a pedestrian or cyclist" u="1"/>
+        <s v="estimate of the concentration of the four pollutants nitrogen dioxide, benzene, sulphur dioxide and particulates" u="1"/>
+        <s v="housing which is expensive to heat" u="1"/>
+        <s v="level of emergency admissions to hospital, based on administrative records of inpatient admissions" u="1"/>
+        <s v="a component of the housing affordability indicator" u="1"/>
+        <s v="education, skills and training deprivation - working age adults" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -10147,158 +15334,158 @@
   <r>
     <x v="2"/>
     <x v="328"/>
-    <x v="2"/>
-    <x v="320"/>
+    <x v="3"/>
+    <x v="321"/>
   </r>
   <r>
     <x v="2"/>
     <x v="329"/>
-    <x v="2"/>
-    <x v="320"/>
+    <x v="3"/>
+    <x v="322"/>
   </r>
   <r>
     <x v="2"/>
     <x v="330"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="323"/>
   </r>
   <r>
     <x v="2"/>
     <x v="331"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="332"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="333"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="334"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="335"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="336"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="337"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="338"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="339"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="340"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="341"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="342"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="343"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="344"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="345"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="346"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="347"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="348"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="349"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="350"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="351"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="352"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="353"/>
     <x v="2"/>
-    <x v="320"/>
+    <x v="324"/>
   </r>
   <r>
     <x v="2"/>
@@ -10310,7 +15497,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Table Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Table Name">
   <location ref="A4:D362" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -10711,7 +15898,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="380">
+      <items count="384">
         <item x="153"/>
         <item x="35"/>
         <item x="36"/>
@@ -10837,7 +16024,7 @@
         <item x="107"/>
         <item x="78"/>
         <item x="146"/>
-        <item m="1" x="355"/>
+        <item m="1" x="345"/>
         <item x="72"/>
         <item x="77"/>
         <item x="89"/>
@@ -10900,7 +16087,7 @@
         <item x="40"/>
         <item x="27"/>
         <item x="50"/>
-        <item m="1" x="321"/>
+        <item m="1" x="330"/>
         <item x="28"/>
         <item x="55"/>
         <item x="120"/>
@@ -10932,66 +16119,66 @@
         <item x="212"/>
         <item x="213"/>
         <item x="214"/>
-        <item m="1" x="378"/>
-        <item m="1" x="345"/>
-        <item m="1" x="356"/>
-        <item m="1" x="354"/>
-        <item m="1" x="367"/>
-        <item m="1" x="368"/>
-        <item m="1" x="361"/>
-        <item m="1" x="357"/>
-        <item m="1" x="365"/>
-        <item m="1" x="342"/>
-        <item m="1" x="325"/>
-        <item m="1" x="369"/>
-        <item m="1" x="352"/>
-        <item m="1" x="350"/>
-        <item m="1" x="377"/>
         <item m="1" x="341"/>
         <item m="1" x="333"/>
+        <item m="1" x="339"/>
+        <item m="1" x="381"/>
+        <item m="1" x="372"/>
+        <item m="1" x="332"/>
         <item m="1" x="347"/>
+        <item m="1" x="383"/>
+        <item m="1" x="368"/>
+        <item m="1" x="376"/>
+        <item m="1" x="348"/>
+        <item m="1" x="377"/>
+        <item m="1" x="337"/>
+        <item m="1" x="359"/>
+        <item m="1" x="362"/>
+        <item m="1" x="367"/>
+        <item m="1" x="364"/>
+        <item m="1" x="363"/>
         <item x="233"/>
         <item x="234"/>
+        <item m="1" x="325"/>
+        <item m="1" x="351"/>
+        <item m="1" x="342"/>
+        <item m="1" x="382"/>
+        <item m="1" x="349"/>
+        <item x="241"/>
+        <item m="1" x="365"/>
+        <item m="1" x="366"/>
+        <item m="1" x="346"/>
+        <item m="1" x="369"/>
+        <item m="1" x="380"/>
+        <item m="1" x="352"/>
+        <item m="1" x="373"/>
+        <item m="1" x="370"/>
+        <item m="1" x="378"/>
+        <item m="1" x="354"/>
+        <item m="1" x="371"/>
+        <item m="1" x="350"/>
+        <item m="1" x="374"/>
         <item m="1" x="379"/>
-        <item m="1" x="346"/>
-        <item m="1" x="351"/>
-        <item m="1" x="330"/>
-        <item m="1" x="366"/>
-        <item x="241"/>
+        <item m="1" x="356"/>
+        <item m="1" x="336"/>
+        <item m="1" x="375"/>
+        <item m="1" x="338"/>
+        <item m="1" x="343"/>
+        <item m="1" x="331"/>
+        <item m="1" x="328"/>
+        <item m="1" x="360"/>
+        <item m="1" x="340"/>
+        <item m="1" x="357"/>
         <item m="1" x="358"/>
-        <item m="1" x="359"/>
-        <item m="1" x="332"/>
-        <item m="1" x="364"/>
+        <item m="1" x="329"/>
+        <item m="1" x="344"/>
+        <item m="1" x="361"/>
+        <item m="1" x="353"/>
+        <item m="1" x="355"/>
+        <item m="1" x="335"/>
         <item m="1" x="334"/>
-        <item m="1" x="344"/>
-        <item m="1" x="353"/>
-        <item m="1" x="328"/>
-        <item m="1" x="338"/>
-        <item m="1" x="348"/>
-        <item m="1" x="331"/>
-        <item m="1" x="373"/>
-        <item m="1" x="374"/>
-        <item m="1" x="339"/>
-        <item m="1" x="324"/>
-        <item m="1" x="322"/>
-        <item m="1" x="329"/>
-        <item m="1" x="360"/>
-        <item m="1" x="343"/>
-        <item m="1" x="323"/>
-        <item m="1" x="362"/>
-        <item m="1" x="375"/>
-        <item m="1" x="349"/>
-        <item m="1" x="370"/>
-        <item m="1" x="371"/>
-        <item m="1" x="363"/>
-        <item m="1" x="372"/>
-        <item m="1" x="376"/>
-        <item m="1" x="335"/>
-        <item m="1" x="340"/>
         <item m="1" x="327"/>
         <item m="1" x="326"/>
-        <item m="1" x="337"/>
-        <item m="1" x="336"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
@@ -11001,7 +16188,7 @@
         <item x="309"/>
         <item x="310"/>
         <item x="311"/>
-        <item x="320"/>
+        <item x="324"/>
         <item x="9"/>
         <item x="11"/>
         <item x="12"/>
@@ -11092,6 +16279,10 @@
         <item x="317"/>
         <item x="318"/>
         <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -12758,22 +17949,22 @@
     <i r="1">
       <x v="245"/>
       <x v="12"/>
-      <x v="289"/>
+      <x v="380"/>
     </i>
     <i r="1">
       <x v="246"/>
-      <x v="12"/>
-      <x v="289"/>
+      <x v="1"/>
+      <x v="381"/>
     </i>
     <i r="1">
       <x v="247"/>
-      <x v="12"/>
-      <x v="289"/>
+      <x v="1"/>
+      <x v="382"/>
     </i>
     <i r="1">
       <x v="248"/>
       <x v="12"/>
-      <x v="289"/>
+      <x v="383"/>
     </i>
     <i r="1">
       <x v="249"/>
@@ -12900,7 +18091,7 @@
     <i/>
   </colItems>
   <formats count="343">
-    <format dxfId="704">
+    <format dxfId="2420">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -12918,7 +18109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="703">
+    <format dxfId="2419">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -12936,7 +18127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="702">
+    <format dxfId="2418">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -12954,7 +18145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="701">
+    <format dxfId="2417">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -12972,7 +18163,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="700">
+    <format dxfId="2416">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -12990,7 +18181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="699">
+    <format dxfId="2415">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13008,7 +18199,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="698">
+    <format dxfId="2414">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13026,7 +18217,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="697">
+    <format dxfId="2413">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13044,7 +18235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="696">
+    <format dxfId="2412">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13062,7 +18253,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="695">
+    <format dxfId="2411">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13080,7 +18271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="694">
+    <format dxfId="2410">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13098,7 +18289,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="693">
+    <format dxfId="2409">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13116,7 +18307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="692">
+    <format dxfId="2408">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13134,7 +18325,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="691">
+    <format dxfId="2407">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13152,7 +18343,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="690">
+    <format dxfId="2406">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13170,7 +18361,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="689">
+    <format dxfId="2405">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13188,7 +18379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="688">
+    <format dxfId="2404">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13206,7 +18397,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="687">
+    <format dxfId="2403">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13224,7 +18415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="686">
+    <format dxfId="2402">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13242,7 +18433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="685">
+    <format dxfId="2401">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13260,7 +18451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="684">
+    <format dxfId="2400">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13278,7 +18469,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="683">
+    <format dxfId="2399">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13296,7 +18487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="682">
+    <format dxfId="2398">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13314,7 +18505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="681">
+    <format dxfId="2397">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13332,7 +18523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="680">
+    <format dxfId="2396">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13350,7 +18541,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="679">
+    <format dxfId="2395">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13368,7 +18559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="678">
+    <format dxfId="2394">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13386,7 +18577,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="677">
+    <format dxfId="2393">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13404,7 +18595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="676">
+    <format dxfId="2392">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13422,7 +18613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="675">
+    <format dxfId="2391">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13440,7 +18631,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="674">
+    <format dxfId="2390">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13458,7 +18649,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="673">
+    <format dxfId="2389">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13476,7 +18667,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="672">
+    <format dxfId="2388">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13494,7 +18685,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="671">
+    <format dxfId="2387">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13512,7 +18703,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="670">
+    <format dxfId="2386">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13530,7 +18721,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="669">
+    <format dxfId="2385">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13548,7 +18739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="668">
+    <format dxfId="2384">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13566,7 +18757,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="667">
+    <format dxfId="2383">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13584,7 +18775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="666">
+    <format dxfId="2382">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13602,7 +18793,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="665">
+    <format dxfId="2381">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13620,7 +18811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="664">
+    <format dxfId="2380">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13638,7 +18829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="663">
+    <format dxfId="2379">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13656,7 +18847,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="662">
+    <format dxfId="2378">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13674,7 +18865,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="661">
+    <format dxfId="2377">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13692,7 +18883,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="660">
+    <format dxfId="2376">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13710,7 +18901,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="659">
+    <format dxfId="2375">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13728,7 +18919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="658">
+    <format dxfId="2374">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13746,7 +18937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="657">
+    <format dxfId="2373">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13764,7 +18955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="656">
+    <format dxfId="2372">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13782,7 +18973,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="655">
+    <format dxfId="2371">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13800,7 +18991,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="654">
+    <format dxfId="2370">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13818,7 +19009,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="653">
+    <format dxfId="2369">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13836,7 +19027,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="652">
+    <format dxfId="2368">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13854,7 +19045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="651">
+    <format dxfId="2367">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13872,7 +19063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="650">
+    <format dxfId="2366">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13890,7 +19081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="649">
+    <format dxfId="2365">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13908,7 +19099,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="648">
+    <format dxfId="2364">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13926,7 +19117,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="647">
+    <format dxfId="2363">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13944,7 +19135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="646">
+    <format dxfId="2362">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13962,7 +19153,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="645">
+    <format dxfId="2361">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13980,7 +19171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="644">
+    <format dxfId="2360">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13998,7 +19189,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="643">
+    <format dxfId="2359">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14016,7 +19207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="642">
+    <format dxfId="2358">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14034,7 +19225,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="641">
+    <format dxfId="2357">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14052,7 +19243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="640">
+    <format dxfId="2356">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14070,7 +19261,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="639">
+    <format dxfId="2355">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14088,7 +19279,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="638">
+    <format dxfId="2354">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14106,7 +19297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="637">
+    <format dxfId="2353">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14124,7 +19315,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="636">
+    <format dxfId="2352">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14142,7 +19333,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="635">
+    <format dxfId="2351">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14160,7 +19351,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="634">
+    <format dxfId="2350">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14178,7 +19369,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="633">
+    <format dxfId="2349">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14196,7 +19387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="632">
+    <format dxfId="2348">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14214,7 +19405,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="631">
+    <format dxfId="2347">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14232,7 +19423,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="630">
+    <format dxfId="2346">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14250,7 +19441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="629">
+    <format dxfId="2345">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14268,7 +19459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="628">
+    <format dxfId="2344">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14286,7 +19477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="627">
+    <format dxfId="2343">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14304,7 +19495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="626">
+    <format dxfId="2342">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14322,7 +19513,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="625">
+    <format dxfId="2341">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14340,7 +19531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="624">
+    <format dxfId="2340">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14358,7 +19549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="623">
+    <format dxfId="2339">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14376,7 +19567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="622">
+    <format dxfId="2338">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14394,7 +19585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="621">
+    <format dxfId="2337">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14412,7 +19603,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="620">
+    <format dxfId="2336">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14430,7 +19621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="619">
+    <format dxfId="2335">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14448,7 +19639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="618">
+    <format dxfId="2334">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14466,7 +19657,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="617">
+    <format dxfId="2333">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14484,7 +19675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="616">
+    <format dxfId="2332">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14502,7 +19693,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="615">
+    <format dxfId="2331">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14520,7 +19711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="614">
+    <format dxfId="2330">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14538,7 +19729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="613">
+    <format dxfId="2329">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14556,7 +19747,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="612">
+    <format dxfId="2328">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14574,7 +19765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="611">
+    <format dxfId="2327">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14592,7 +19783,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="610">
+    <format dxfId="2326">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14610,7 +19801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="609">
+    <format dxfId="2325">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14628,7 +19819,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="608">
+    <format dxfId="2324">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14646,7 +19837,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="607">
+    <format dxfId="2323">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14664,7 +19855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="606">
+    <format dxfId="2322">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14682,7 +19873,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="605">
+    <format dxfId="2321">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14700,7 +19891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="604">
+    <format dxfId="2320">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14718,7 +19909,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="603">
+    <format dxfId="2319">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14736,7 +19927,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="602">
+    <format dxfId="2318">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14754,7 +19945,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="601">
+    <format dxfId="2317">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14772,7 +19963,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="600">
+    <format dxfId="2316">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14790,7 +19981,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="599">
+    <format dxfId="2315">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14808,7 +19999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="598">
+    <format dxfId="2314">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14826,7 +20017,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="597">
+    <format dxfId="2313">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14844,7 +20035,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="596">
+    <format dxfId="2312">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14862,7 +20053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="595">
+    <format dxfId="2311">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14880,7 +20071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="594">
+    <format dxfId="2310">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14898,7 +20089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="593">
+    <format dxfId="2309">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14916,7 +20107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="592">
+    <format dxfId="2308">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14934,7 +20125,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="591">
+    <format dxfId="2307">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14952,7 +20143,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="590">
+    <format dxfId="2306">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14970,7 +20161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="589">
+    <format dxfId="2305">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14988,7 +20179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="588">
+    <format dxfId="2304">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15006,7 +20197,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="587">
+    <format dxfId="2303">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15024,7 +20215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="586">
+    <format dxfId="2302">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15042,7 +20233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="585">
+    <format dxfId="2301">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15060,7 +20251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="584">
+    <format dxfId="2300">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15078,7 +20269,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="583">
+    <format dxfId="2299">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15096,7 +20287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="582">
+    <format dxfId="2298">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15114,7 +20305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="581">
+    <format dxfId="2297">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15132,7 +20323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="580">
+    <format dxfId="2296">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15150,7 +20341,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="579">
+    <format dxfId="2295">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15168,7 +20359,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="578">
+    <format dxfId="2294">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15186,7 +20377,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="577">
+    <format dxfId="2293">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15204,7 +20395,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="576">
+    <format dxfId="2292">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15222,7 +20413,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="575">
+    <format dxfId="2291">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15240,7 +20431,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="574">
+    <format dxfId="2290">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15258,7 +20449,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="573">
+    <format dxfId="2289">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15276,7 +20467,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="572">
+    <format dxfId="2288">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15294,7 +20485,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="571">
+    <format dxfId="2287">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15312,7 +20503,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="570">
+    <format dxfId="2286">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15330,7 +20521,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="569">
+    <format dxfId="2285">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15348,7 +20539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="568">
+    <format dxfId="2284">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15366,7 +20557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="567">
+    <format dxfId="2283">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15384,7 +20575,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="566">
+    <format dxfId="2282">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15402,7 +20593,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="565">
+    <format dxfId="2281">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15420,7 +20611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="564">
+    <format dxfId="2280">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15438,7 +20629,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="563">
+    <format dxfId="2279">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15456,7 +20647,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="562">
+    <format dxfId="2278">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15474,7 +20665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="561">
+    <format dxfId="2277">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15492,7 +20683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="560">
+    <format dxfId="2276">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15510,7 +20701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="559">
+    <format dxfId="2275">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15528,7 +20719,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="558">
+    <format dxfId="2274">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15546,7 +20737,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="557">
+    <format dxfId="2273">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15564,7 +20755,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="556">
+    <format dxfId="2272">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15582,7 +20773,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="555">
+    <format dxfId="2271">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15600,7 +20791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="554">
+    <format dxfId="2270">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15618,7 +20809,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="553">
+    <format dxfId="2269">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15636,7 +20827,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="552">
+    <format dxfId="2268">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15654,7 +20845,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="551">
+    <format dxfId="2267">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15672,7 +20863,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="550">
+    <format dxfId="2266">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15690,7 +20881,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="549">
+    <format dxfId="2265">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15708,7 +20899,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="548">
+    <format dxfId="2264">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15726,7 +20917,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="547">
+    <format dxfId="2263">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15744,7 +20935,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="546">
+    <format dxfId="2262">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15762,7 +20953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="545">
+    <format dxfId="2261">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15780,7 +20971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="544">
+    <format dxfId="2260">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15798,7 +20989,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="543">
+    <format dxfId="2259">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15816,7 +21007,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="542">
+    <format dxfId="2258">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15834,7 +21025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="541">
+    <format dxfId="2257">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15852,7 +21043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="540">
+    <format dxfId="2256">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15870,7 +21061,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="539">
+    <format dxfId="2255">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15888,7 +21079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="538">
+    <format dxfId="2254">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15906,7 +21097,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="537">
+    <format dxfId="2253">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15924,7 +21115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="536">
+    <format dxfId="2252">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15942,7 +21133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="535">
+    <format dxfId="2251">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15960,7 +21151,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="534">
+    <format dxfId="2250">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15978,7 +21169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="533">
+    <format dxfId="2249">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15996,7 +21187,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="532">
+    <format dxfId="2248">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16014,7 +21205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="531">
+    <format dxfId="2247">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16032,7 +21223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="530">
+    <format dxfId="2246">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16050,7 +21241,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="529">
+    <format dxfId="2245">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16068,7 +21259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="528">
+    <format dxfId="2244">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16086,7 +21277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="527">
+    <format dxfId="2243">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16104,7 +21295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="526">
+    <format dxfId="2242">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16122,7 +21313,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="525">
+    <format dxfId="2241">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16140,7 +21331,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="524">
+    <format dxfId="2240">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16158,7 +21349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="523">
+    <format dxfId="2239">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16176,7 +21367,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="522">
+    <format dxfId="2238">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16194,7 +21385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="521">
+    <format dxfId="2237">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16212,7 +21403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="520">
+    <format dxfId="2236">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16230,7 +21421,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="519">
+    <format dxfId="2235">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16248,7 +21439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="518">
+    <format dxfId="2234">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16266,7 +21457,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="517">
+    <format dxfId="2233">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16284,7 +21475,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="516">
+    <format dxfId="2232">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16302,7 +21493,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="515">
+    <format dxfId="2231">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16320,7 +21511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="514">
+    <format dxfId="2230">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16338,7 +21529,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="513">
+    <format dxfId="2229">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16356,7 +21547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="512">
+    <format dxfId="2228">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16374,7 +21565,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="511">
+    <format dxfId="2227">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16392,7 +21583,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="510">
+    <format dxfId="2226">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16410,7 +21601,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="509">
+    <format dxfId="2225">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16428,7 +21619,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="508">
+    <format dxfId="2224">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16446,7 +21637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="507">
+    <format dxfId="2223">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16464,7 +21655,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="506">
+    <format dxfId="2222">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16482,7 +21673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="505">
+    <format dxfId="2221">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16500,7 +21691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="504">
+    <format dxfId="2220">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16518,7 +21709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="503">
+    <format dxfId="2219">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16536,7 +21727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="502">
+    <format dxfId="2218">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16554,7 +21745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="501">
+    <format dxfId="2217">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16572,7 +21763,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="500">
+    <format dxfId="2216">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16590,7 +21781,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="499">
+    <format dxfId="2215">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16608,7 +21799,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="498">
+    <format dxfId="2214">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16626,7 +21817,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="497">
+    <format dxfId="2213">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16644,7 +21835,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="496">
+    <format dxfId="2212">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16662,7 +21853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="495">
+    <format dxfId="2211">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16680,7 +21871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="494">
+    <format dxfId="2210">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16698,7 +21889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="493">
+    <format dxfId="2209">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16716,7 +21907,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="492">
+    <format dxfId="2208">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16734,7 +21925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="491">
+    <format dxfId="2207">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16752,7 +21943,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="490">
+    <format dxfId="2206">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16770,7 +21961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="489">
+    <format dxfId="2205">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16788,7 +21979,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="488">
+    <format dxfId="2204">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16806,7 +21997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="487">
+    <format dxfId="2203">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16824,7 +22015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="486">
+    <format dxfId="2202">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16842,7 +22033,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="485">
+    <format dxfId="2201">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16860,7 +22051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="484">
+    <format dxfId="2200">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16878,7 +22069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="483">
+    <format dxfId="2199">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16896,7 +22087,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="482">
+    <format dxfId="2198">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16914,7 +22105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="481">
+    <format dxfId="2197">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16932,7 +22123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="480">
+    <format dxfId="2196">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16950,7 +22141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="479">
+    <format dxfId="2195">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16968,7 +22159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="478">
+    <format dxfId="2194">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16986,7 +22177,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="477">
+    <format dxfId="2193">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17004,7 +22195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="476">
+    <format dxfId="2192">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17022,7 +22213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="475">
+    <format dxfId="2191">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17040,7 +22231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="474">
+    <format dxfId="2190">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17058,7 +22249,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="473">
+    <format dxfId="2189">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17076,7 +22267,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="472">
+    <format dxfId="2188">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17094,7 +22285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="471">
+    <format dxfId="2187">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17112,7 +22303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="470">
+    <format dxfId="2186">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17130,7 +22321,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="469">
+    <format dxfId="2185">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17148,7 +22339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="468">
+    <format dxfId="2184">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17166,7 +22357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="467">
+    <format dxfId="2183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17184,7 +22375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="466">
+    <format dxfId="2182">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17202,7 +22393,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="465">
+    <format dxfId="2181">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17220,7 +22411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="464">
+    <format dxfId="2180">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17238,7 +22429,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="463">
+    <format dxfId="2179">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17256,7 +22447,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="462">
+    <format dxfId="2178">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17274,7 +22465,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="461">
+    <format dxfId="2177">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17292,7 +22483,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="460">
+    <format dxfId="2176">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17310,7 +22501,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="459">
+    <format dxfId="2175">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17328,7 +22519,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="458">
+    <format dxfId="2174">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17346,7 +22537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="457">
+    <format dxfId="2173">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17364,7 +22555,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="456">
+    <format dxfId="2172">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17382,7 +22573,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="455">
+    <format dxfId="2171">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17400,7 +22591,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="454">
+    <format dxfId="2170">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17418,7 +22609,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="453">
+    <format dxfId="2169">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17436,7 +22627,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="452">
+    <format dxfId="2168">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17454,7 +22645,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="451">
+    <format dxfId="2167">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17472,7 +22663,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="450">
+    <format dxfId="2166">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17490,7 +22681,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="449">
+    <format dxfId="2165">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17508,7 +22699,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="448">
+    <format dxfId="2164">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17526,7 +22717,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="447">
+    <format dxfId="2163">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17544,7 +22735,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="446">
+    <format dxfId="2162">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17562,7 +22753,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="445">
+    <format dxfId="2161">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17580,7 +22771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="444">
+    <format dxfId="2160">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17598,7 +22789,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="443">
+    <format dxfId="2159">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17616,7 +22807,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="442">
+    <format dxfId="2158">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17634,7 +22825,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="441">
+    <format dxfId="2157">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17652,7 +22843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="440">
+    <format dxfId="2156">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17670,7 +22861,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="439">
+    <format dxfId="2155">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17688,7 +22879,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="438">
+    <format dxfId="2154">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17706,7 +22897,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="437">
+    <format dxfId="2153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17724,7 +22915,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="436">
+    <format dxfId="2152">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17742,7 +22933,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="435">
+    <format dxfId="2151">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17760,7 +22951,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="434">
+    <format dxfId="2150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17778,7 +22969,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="433">
+    <format dxfId="2149">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17796,7 +22987,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="432">
+    <format dxfId="2148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17814,7 +23005,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="431">
+    <format dxfId="2147">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17832,7 +23023,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="430">
+    <format dxfId="2146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17850,7 +23041,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="429">
+    <format dxfId="2145">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17868,7 +23059,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="428">
+    <format dxfId="2144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17886,7 +23077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="427">
+    <format dxfId="2143">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17904,7 +23095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="426">
+    <format dxfId="2142">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17922,7 +23113,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="425">
+    <format dxfId="2141">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17940,7 +23131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="424">
+    <format dxfId="2140">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17958,7 +23149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="423">
+    <format dxfId="2139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17976,7 +23167,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="422">
+    <format dxfId="2138">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17994,7 +23185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="421">
+    <format dxfId="2137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18012,7 +23203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="420">
+    <format dxfId="2136">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18030,7 +23221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="419">
+    <format dxfId="2135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18048,7 +23239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="418">
+    <format dxfId="2134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18066,7 +23257,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="417">
+    <format dxfId="2133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18084,7 +23275,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="416">
+    <format dxfId="2132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18102,7 +23293,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="415">
+    <format dxfId="2131">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18120,7 +23311,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="414">
+    <format dxfId="2130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18138,7 +23329,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="413">
+    <format dxfId="2129">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18156,7 +23347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="412">
+    <format dxfId="2128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18174,7 +23365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="411">
+    <format dxfId="2127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18192,7 +23383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="410">
+    <format dxfId="2126">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18210,7 +23401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="409">
+    <format dxfId="2125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18228,7 +23419,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="408">
+    <format dxfId="2124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18246,7 +23437,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="407">
+    <format dxfId="2123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18264,7 +23455,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="406">
+    <format dxfId="2122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18282,7 +23473,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="405">
+    <format dxfId="2121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18300,7 +23491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="404">
+    <format dxfId="2120">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18318,7 +23509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="403">
+    <format dxfId="2119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18336,7 +23527,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="402">
+    <format dxfId="2118">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18354,7 +23545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="401">
+    <format dxfId="2117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18372,7 +23563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="400">
+    <format dxfId="2116">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18390,7 +23581,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="399">
+    <format dxfId="2115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18408,7 +23599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="398">
+    <format dxfId="2114">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18426,7 +23617,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="397">
+    <format dxfId="2113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18444,7 +23635,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="396">
+    <format dxfId="2112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18462,7 +23653,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="395">
+    <format dxfId="2111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18480,7 +23671,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="394">
+    <format dxfId="2110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18498,7 +23689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="393">
+    <format dxfId="2109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18516,7 +23707,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="392">
+    <format dxfId="2108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18534,7 +23725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="391">
+    <format dxfId="2107">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18552,7 +23743,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="390">
+    <format dxfId="2106">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18570,7 +23761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="389">
+    <format dxfId="2105">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18588,7 +23779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="388">
+    <format dxfId="2104">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18606,7 +23797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="387">
+    <format dxfId="2103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18624,7 +23815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="386">
+    <format dxfId="2102">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18642,7 +23833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="385">
+    <format dxfId="2101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18660,7 +23851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="384">
+    <format dxfId="2100">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18678,7 +23869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="383">
+    <format dxfId="2099">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18696,7 +23887,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="382">
+    <format dxfId="2098">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18714,7 +23905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="381">
+    <format dxfId="2097">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18732,7 +23923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="380">
+    <format dxfId="2096">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18750,7 +23941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="379">
+    <format dxfId="2095">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18768,7 +23959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="378">
+    <format dxfId="2094">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18786,7 +23977,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="377">
+    <format dxfId="2093">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18804,7 +23995,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="376">
+    <format dxfId="2092">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18822,7 +24013,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="375">
+    <format dxfId="2091">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18840,7 +24031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="374">
+    <format dxfId="2090">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18858,7 +24049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="373">
+    <format dxfId="2089">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18876,7 +24067,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="372">
+    <format dxfId="2088">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18894,7 +24085,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="371">
+    <format dxfId="2087">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18912,7 +24103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="370">
+    <format dxfId="2086">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18930,7 +24121,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="369">
+    <format dxfId="2085">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18948,7 +24139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="368">
+    <format dxfId="2084">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18966,7 +24157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="367">
+    <format dxfId="2083">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18984,7 +24175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="366">
+    <format dxfId="2082">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19002,7 +24193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="365">
+    <format dxfId="2081">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19020,7 +24211,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="364">
+    <format dxfId="2080">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19038,7 +24229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="363">
+    <format dxfId="2079">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19056,7 +24247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="362">
+    <format dxfId="2078">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19601,28 +24792,28 @@
     <i/>
   </colItems>
   <formats count="4">
-    <format dxfId="361">
+    <format dxfId="2077">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="360">
+    <format dxfId="2076">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="359">
+    <format dxfId="2075">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="358">
+    <format dxfId="2074">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -20076,27 +25267,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>1047</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -20176,7 +25367,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20188,18 +25379,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:4" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>932</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -20397,11 +25588,19 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="59"/>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>986</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C18" s="41">
+        <v>44400</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>1226</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -21201,7 +26400,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D98">
-    <cfRule type="cellIs" dxfId="345" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2060" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21237,18 +26436,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>929</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>932</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
@@ -28864,12 +34063,12 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="344" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2059" priority="2" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A295">
-    <cfRule type="cellIs" dxfId="343" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2058" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29058,10 +34257,10 @@
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>932</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -29077,10 +34276,10 @@
     </row>
     <row r="7" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>1153</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -29094,16 +34293,16 @@
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>983</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="62"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>990</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -29122,10 +34321,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="62" t="s">
         <v>948</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="62"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -29156,10 +34355,10 @@
     </row>
     <row r="22" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>989</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="64"/>
     </row>
     <row r="24" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -29181,10 +34380,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="62" t="s">
         <v>957</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="62"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -29201,16 +34400,16 @@
       <c r="A33" s="35"/>
     </row>
     <row r="34" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="62" t="s">
         <v>1171</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="62"/>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="65" t="s">
         <v>1170</v>
       </c>
-      <c r="B35" s="66"/>
+      <c r="B35" s="65"/>
     </row>
     <row r="36" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -29232,16 +34431,16 @@
       </c>
     </row>
     <row r="41" spans="1:2" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="62" t="s">
         <v>1156</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="62"/>
     </row>
     <row r="42" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="63" t="s">
         <v>988</v>
       </c>
-      <c r="B42" s="64"/>
+      <c r="B42" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -29288,10 +34487,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -29481,16 +34680,16 @@
       <c r="A21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="67" t="s">
         <v>933</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -29836,7 +35035,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29849,21 +35048,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>931</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:4" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>932</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -34510,7 +39709,7 @@
         <v>338</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>1048</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -34521,10 +39720,10 @@
         <v>373</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>1048</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -34535,10 +39734,10 @@
         <v>374</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>1048</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -34552,7 +39751,7 @@
         <v>338</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>1048</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -34898,7 +40097,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D277">
-    <cfRule type="cellIs" dxfId="705" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2073" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34924,8 +40123,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="E335" sqref="E335"/>
+    <sheetView topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43591,7 +48790,7 @@
         <v>338</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>1048</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -43601,11 +48800,11 @@
       <c r="B333" t="s">
         <v>373</v>
       </c>
-      <c r="C333" t="s">
-        <v>338</v>
+      <c r="C333" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>1048</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -43615,11 +48814,11 @@
       <c r="B334" t="s">
         <v>374</v>
       </c>
-      <c r="C334" t="s">
-        <v>338</v>
+      <c r="C334" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>1048</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -43633,7 +48832,7 @@
         <v>338</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>1048</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -43999,17 +49198,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>928</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:4" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>932</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:4" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -46638,9 +51837,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J339"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F315" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46657,18 +51856,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>771</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="66"/>
       <c r="E1" s="53"/>
       <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>932</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="61"/>
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
     </row>
@@ -55269,9 +60468,6 @@
       <c r="G307" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="H307" s="52" t="s">
-        <v>1001</v>
-      </c>
       <c r="I307" s="52" t="s">
         <v>1134</v>
       </c>
@@ -55403,20 +60599,22 @@
         <v>918</v>
       </c>
       <c r="C312" s="52" t="s">
-        <v>745</v>
+        <v>1220</v>
       </c>
       <c r="D312" s="52" t="s">
         <v>372</v>
       </c>
       <c r="E312" s="55" t="s">
-        <v>749</v>
-      </c>
-      <c r="F312" s="55"/>
+        <v>1217</v>
+      </c>
+      <c r="F312" s="55" t="s">
+        <v>1221</v>
+      </c>
       <c r="G312" s="52" t="s">
         <v>338</v>
       </c>
       <c r="H312" s="52" t="s">
-        <v>747</v>
+        <v>1001</v>
       </c>
       <c r="I312" s="52"/>
       <c r="J312" s="6"/>
@@ -55429,20 +60627,22 @@
         <v>918</v>
       </c>
       <c r="C313" s="52" t="s">
-        <v>745</v>
+        <v>1220</v>
       </c>
       <c r="D313" s="52" t="s">
         <v>373</v>
       </c>
       <c r="E313" s="55" t="s">
-        <v>749</v>
-      </c>
-      <c r="F313" s="55"/>
+        <v>1218</v>
+      </c>
+      <c r="F313" s="55" t="s">
+        <v>1223</v>
+      </c>
       <c r="G313" s="52" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="H313" s="52" t="s">
-        <v>747</v>
+        <v>1001</v>
       </c>
       <c r="I313" s="52"/>
       <c r="J313" s="6"/>
@@ -55455,17 +60655,19 @@
         <v>918</v>
       </c>
       <c r="C314" s="52" t="s">
-        <v>745</v>
+        <v>1220</v>
       </c>
       <c r="D314" s="52" t="s">
         <v>374</v>
       </c>
       <c r="E314" s="55" t="s">
-        <v>749</v>
-      </c>
-      <c r="F314" s="55"/>
+        <v>1219</v>
+      </c>
+      <c r="F314" s="55" t="s">
+        <v>1222</v>
+      </c>
       <c r="G314" s="52" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="H314" s="52" t="s">
         <v>747</v>
@@ -55473,7 +60675,7 @@
       <c r="I314" s="52"/>
       <c r="J314" s="6"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" s="52" t="s">
         <v>428</v>
       </c>
@@ -55487,16 +60689,20 @@
         <v>375</v>
       </c>
       <c r="E315" s="55" t="s">
-        <v>749</v>
-      </c>
-      <c r="F315" s="55"/>
+        <v>1224</v>
+      </c>
+      <c r="F315" s="55" t="s">
+        <v>1225</v>
+      </c>
       <c r="G315" s="52" t="s">
         <v>338</v>
       </c>
       <c r="H315" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="I315" s="52"/>
+        <v>444</v>
+      </c>
+      <c r="I315" s="52" t="s">
+        <v>442</v>
+      </c>
       <c r="J315" s="6"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -56128,6 +61334,7 @@
       <c r="J339" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:I339"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -56147,7 +61354,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56158,18 +61365,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>927</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:3" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>932</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -56183,7 +61390,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -56194,7 +61401,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="47" t="s">
         <v>412</v>
       </c>
@@ -56203,7 +61410,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="47" t="s">
         <v>417</v>
       </c>
@@ -56212,7 +61419,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="47" t="s">
         <v>416</v>
       </c>
@@ -56221,7 +61428,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="49" t="s">
@@ -56232,7 +61439,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="47" t="s">
         <v>412</v>
       </c>
@@ -56241,7 +61448,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="47" t="s">
         <v>417</v>
       </c>
@@ -56250,7 +61457,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="50" t="s">
         <v>416</v>
       </c>
@@ -56259,7 +61466,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="69" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="49" t="s">
@@ -56270,7 +61477,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="47" t="s">
         <v>412</v>
       </c>
@@ -56279,7 +61486,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="47" t="s">
         <v>417</v>
       </c>
@@ -56288,7 +61495,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="50" t="s">
         <v>416</v>
       </c>
@@ -56297,7 +61504,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="69" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -56308,7 +61515,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="47" t="s">
         <v>412</v>
       </c>
@@ -56317,7 +61524,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="47" t="s">
         <v>417</v>
       </c>
@@ -56326,7 +61533,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="50" t="s">
         <v>416</v>
       </c>
@@ -56335,7 +61542,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="69" t="s">
         <v>135</v>
       </c>
       <c r="B22" s="49" t="s">
@@ -56346,7 +61553,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="47" t="s">
         <v>412</v>
       </c>
@@ -56355,7 +61562,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="47" t="s">
         <v>417</v>
       </c>
@@ -56364,7 +61571,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="50" t="s">
         <v>416</v>
       </c>
@@ -56373,7 +61580,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="69" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -56384,7 +61591,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="246" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="47" t="s">
         <v>412</v>
       </c>
@@ -56393,7 +61600,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="47" t="s">
         <v>417</v>
       </c>
@@ -56402,7 +61609,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="50" t="s">
         <v>416</v>
       </c>
@@ -56411,7 +61618,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="69" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="49" t="s">
@@ -56422,7 +61629,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="47" t="s">
         <v>412</v>
       </c>
@@ -56431,7 +61638,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="47" t="s">
         <v>417</v>
       </c>
@@ -56440,7 +61647,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="50" t="s">
         <v>416</v>
       </c>
@@ -56461,62 +61668,62 @@
     <mergeCell ref="A14:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:C6 B7:C13">
-    <cfRule type="cellIs" dxfId="357" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2072" priority="13" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="356" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2071" priority="12" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C17">
-    <cfRule type="cellIs" dxfId="355" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2070" priority="10" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="354" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2069" priority="9" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C21">
-    <cfRule type="cellIs" dxfId="353" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2068" priority="8" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="352" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2067" priority="7" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25">
-    <cfRule type="cellIs" dxfId="351" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2066" priority="6" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="350" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2065" priority="5" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C29">
-    <cfRule type="cellIs" dxfId="349" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2064" priority="4" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="348" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2063" priority="3" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C33">
-    <cfRule type="cellIs" dxfId="347" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2062" priority="2" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="346" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2061" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWD User Guide.xlsx
+++ b/SWD User Guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Finance\Shared Area\BNSSG - BI\10 Infrastructure\04 - Data Management\System Wide Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E1FCA-94F0-4B99-B2B6-1E0301615ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998788F7-361D-48F0-9374-DABD3F766434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,8 +41,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
-    <pivotCache cacheId="7" r:id="rId15"/>
+    <pivotCache cacheId="16" r:id="rId14"/>
+    <pivotCache cacheId="17" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8674" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="1432">
   <si>
     <t>pod_l2a</t>
   </si>
@@ -3786,9 +3786,6 @@
     <t>Covid-19 vaccine cohort 6 eligibility</t>
   </si>
   <si>
-    <t>Covid-19 vaccination cohort 6 eligibility. Text indicates clinical risk group.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The date is after or 12 months before </t>
   </si>
   <si>
@@ -4295,10 +4292,6 @@
     <t>Cost is based on the average salary of the healthcare professional involved in the consultation, and the length of time taken.  Average salary costs are informed by the following papers: https://kar.kent.ac.uk/92342/, https://kar.kent.ac.uk/70995/</t>
   </si>
   <si>
-    <t>The CSU have confirmed this is because the patient is registered to a non-BNSSG CCG on NHAIS (PDS?).  Have asked for a further IG steer as believe that by default this data must be related to a BNSSG registered patient.
-Update 22/03/22 - CSU have accepted this is an error and a fix is underway which will see number of records affected reduce and then disappear. Some reprocessing of historic data to be undertaken to plug in existing gaps.</t>
-  </si>
-  <si>
     <t>closed as duplicate of issue no. 12 above</t>
   </si>
   <si>
@@ -4416,9 +4409,6 @@
   </si>
   <si>
     <t>Improving Access to Psychological Therapies (IAPT) Data Set - NHS Digital</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t xml:space="preserve">Measurements </t>
@@ -4632,6 +4622,54 @@
   </si>
   <si>
     <t>added new derived column - measurement_group - to swd_measurement table and updated with derived groupings</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>moved code for creation of swd_measurement to separate stored procedure and changed period of refresh from 'to date' to latest month only.</t>
+  </si>
+  <si>
+    <t>Flu eligibity risk groups</t>
+  </si>
+  <si>
+    <t>identifies which flu risk group/s the patient relates (abbreviated). Full descriptions for abbreviations are as follows: asp = Asplenic / spleen; ast = Asthma; crh = Care home; chd = Coronary heart disease; ckd = Chronic kidney disease; di = Diabetes; iar = Immunocompromised at risk; idr = Immune drugs; ldi = Learning disability; liv = liver disease; neu = Neurological conditions; obe = Obesity; res = Respiratory conditions; prg = Pregnancy</t>
+  </si>
+  <si>
+    <t>smi_alcohol</t>
+  </si>
+  <si>
+    <t>smi_blood_glucose</t>
+  </si>
+  <si>
+    <t>smi_blood_lipids_cholesterol</t>
+  </si>
+  <si>
+    <t>smi_blood_lipids_qrisk</t>
+  </si>
+  <si>
+    <t>smi_blood_pressure</t>
+  </si>
+  <si>
+    <t>smi_bmi</t>
+  </si>
+  <si>
+    <t>smi_smoking</t>
+  </si>
+  <si>
+    <t>learning_disability</t>
+  </si>
+  <si>
+    <t>Attributes and activity for Mendip Vale GP practice are not included in October 2022's data due to the technical DSA being disabled in EMIS.</t>
+  </si>
+  <si>
+    <t>Escalated to primary care contacts.
+Latest attributes data (Sep 22) retained in swd attributes tables.</t>
+  </si>
+  <si>
+    <t>The CSU have confirmed this is because the patient is registered to a non-BNSSG CCG on NHAIS (PDS?).  Have asked for a further IG steer as believe that by default this data must be related to a BNSSG registered patient.
+Update 22/03/22 - CSU have accepted this is an error and a fix is underway which will see number of records affected reduce and then disappear.
+Update 27/09/22 - issue appears to be resolved with new data containing acceptable level of NULL value records (&lt; 20).  in process of trying to get some reprocessed historic data to plug gaps.</t>
   </si>
 </sst>
 </file>
@@ -5143,1036 +5181,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="708">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="365">
     <dxf>
       <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
@@ -11749,7 +10758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Table Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Table Name">
   <location ref="A4:D369" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -14407,7 +13416,7 @@
     <i/>
   </colItems>
   <formats count="343">
-    <format dxfId="706">
+    <format dxfId="363">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14425,7 +13434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="705">
+    <format dxfId="362">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14443,7 +13452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="704">
+    <format dxfId="361">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14461,7 +13470,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="703">
+    <format dxfId="360">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14479,7 +13488,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="702">
+    <format dxfId="359">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14497,7 +13506,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="701">
+    <format dxfId="358">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14515,7 +13524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="700">
+    <format dxfId="357">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14533,7 +13542,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="699">
+    <format dxfId="356">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14551,7 +13560,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="698">
+    <format dxfId="355">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14569,7 +13578,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="697">
+    <format dxfId="354">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14587,7 +13596,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="696">
+    <format dxfId="353">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14605,7 +13614,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="695">
+    <format dxfId="352">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14623,7 +13632,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="694">
+    <format dxfId="351">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14641,7 +13650,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="693">
+    <format dxfId="350">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14659,7 +13668,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="692">
+    <format dxfId="349">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14677,7 +13686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="691">
+    <format dxfId="348">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14695,7 +13704,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="690">
+    <format dxfId="347">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14713,7 +13722,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="689">
+    <format dxfId="346">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14731,7 +13740,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="688">
+    <format dxfId="345">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14749,7 +13758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="687">
+    <format dxfId="344">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14767,7 +13776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="686">
+    <format dxfId="343">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14785,7 +13794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="685">
+    <format dxfId="342">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14803,7 +13812,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="684">
+    <format dxfId="341">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14821,7 +13830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="683">
+    <format dxfId="340">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14839,7 +13848,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="682">
+    <format dxfId="339">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14857,7 +13866,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="681">
+    <format dxfId="338">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14875,7 +13884,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="680">
+    <format dxfId="337">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14893,7 +13902,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="679">
+    <format dxfId="336">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14911,7 +13920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="678">
+    <format dxfId="335">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14929,7 +13938,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="677">
+    <format dxfId="334">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14947,7 +13956,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="676">
+    <format dxfId="333">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14965,7 +13974,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="675">
+    <format dxfId="332">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -14983,7 +13992,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="674">
+    <format dxfId="331">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15001,7 +14010,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="673">
+    <format dxfId="330">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15019,7 +14028,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="672">
+    <format dxfId="329">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15037,7 +14046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="671">
+    <format dxfId="328">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15055,7 +14064,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="670">
+    <format dxfId="327">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15073,7 +14082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="669">
+    <format dxfId="326">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15091,7 +14100,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="668">
+    <format dxfId="325">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15109,7 +14118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="667">
+    <format dxfId="324">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15127,7 +14136,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="666">
+    <format dxfId="323">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15145,7 +14154,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="665">
+    <format dxfId="322">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15163,7 +14172,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="664">
+    <format dxfId="321">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15181,7 +14190,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="663">
+    <format dxfId="320">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15199,7 +14208,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="662">
+    <format dxfId="319">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15217,7 +14226,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="661">
+    <format dxfId="318">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15235,7 +14244,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="660">
+    <format dxfId="317">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15253,7 +14262,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="659">
+    <format dxfId="316">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15271,7 +14280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="658">
+    <format dxfId="315">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15289,7 +14298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="657">
+    <format dxfId="314">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15307,7 +14316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="656">
+    <format dxfId="313">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15325,7 +14334,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="655">
+    <format dxfId="312">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15343,7 +14352,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="654">
+    <format dxfId="311">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15361,7 +14370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="653">
+    <format dxfId="310">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15379,7 +14388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="652">
+    <format dxfId="309">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15397,7 +14406,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="651">
+    <format dxfId="308">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15415,7 +14424,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="650">
+    <format dxfId="307">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15433,7 +14442,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="649">
+    <format dxfId="306">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15451,7 +14460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="648">
+    <format dxfId="305">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15469,7 +14478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="647">
+    <format dxfId="304">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15487,7 +14496,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="646">
+    <format dxfId="303">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15505,7 +14514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="645">
+    <format dxfId="302">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15523,7 +14532,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="644">
+    <format dxfId="301">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15541,7 +14550,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="643">
+    <format dxfId="300">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15559,7 +14568,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="642">
+    <format dxfId="299">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15577,7 +14586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="641">
+    <format dxfId="298">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15595,7 +14604,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="640">
+    <format dxfId="297">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15613,7 +14622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="639">
+    <format dxfId="296">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15631,7 +14640,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="638">
+    <format dxfId="295">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15649,7 +14658,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="637">
+    <format dxfId="294">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15667,7 +14676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="636">
+    <format dxfId="293">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15685,7 +14694,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="635">
+    <format dxfId="292">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15703,7 +14712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="634">
+    <format dxfId="291">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15721,7 +14730,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="633">
+    <format dxfId="290">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15739,7 +14748,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="632">
+    <format dxfId="289">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15757,7 +14766,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="631">
+    <format dxfId="288">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15775,7 +14784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="630">
+    <format dxfId="287">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15793,7 +14802,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="629">
+    <format dxfId="286">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15811,7 +14820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="628">
+    <format dxfId="285">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15829,7 +14838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="627">
+    <format dxfId="284">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15847,7 +14856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="626">
+    <format dxfId="283">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15865,7 +14874,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="625">
+    <format dxfId="282">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15883,7 +14892,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="624">
+    <format dxfId="281">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15901,7 +14910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="623">
+    <format dxfId="280">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15919,7 +14928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="622">
+    <format dxfId="279">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15937,7 +14946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="621">
+    <format dxfId="278">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15955,7 +14964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="620">
+    <format dxfId="277">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15973,7 +14982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="619">
+    <format dxfId="276">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -15991,7 +15000,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="618">
+    <format dxfId="275">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16009,7 +15018,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="617">
+    <format dxfId="274">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16027,7 +15036,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="616">
+    <format dxfId="273">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16045,7 +15054,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="615">
+    <format dxfId="272">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16063,7 +15072,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="614">
+    <format dxfId="271">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16081,7 +15090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="613">
+    <format dxfId="270">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16099,7 +15108,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="612">
+    <format dxfId="269">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16117,7 +15126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="611">
+    <format dxfId="268">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16135,7 +15144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="610">
+    <format dxfId="267">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16153,7 +15162,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="609">
+    <format dxfId="266">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16171,7 +15180,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="608">
+    <format dxfId="265">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16189,7 +15198,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="607">
+    <format dxfId="264">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16207,7 +15216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="606">
+    <format dxfId="263">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16225,7 +15234,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="605">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16243,7 +15252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="604">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16261,7 +15270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="603">
+    <format dxfId="260">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16279,7 +15288,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="602">
+    <format dxfId="259">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16297,7 +15306,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="601">
+    <format dxfId="258">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16315,7 +15324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="600">
+    <format dxfId="257">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16333,7 +15342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="599">
+    <format dxfId="256">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16351,7 +15360,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="598">
+    <format dxfId="255">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16369,7 +15378,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="597">
+    <format dxfId="254">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16387,7 +15396,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="596">
+    <format dxfId="253">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16405,7 +15414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="595">
+    <format dxfId="252">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16423,7 +15432,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="594">
+    <format dxfId="251">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16441,7 +15450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="593">
+    <format dxfId="250">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16459,7 +15468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="592">
+    <format dxfId="249">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16477,7 +15486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="591">
+    <format dxfId="248">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16495,7 +15504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="590">
+    <format dxfId="247">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16513,7 +15522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="589">
+    <format dxfId="246">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16531,7 +15540,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="588">
+    <format dxfId="245">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16549,7 +15558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="587">
+    <format dxfId="244">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16567,7 +15576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="586">
+    <format dxfId="243">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16585,7 +15594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="585">
+    <format dxfId="242">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16603,7 +15612,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="584">
+    <format dxfId="241">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16621,7 +15630,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="583">
+    <format dxfId="240">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16639,7 +15648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="582">
+    <format dxfId="239">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16657,7 +15666,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="581">
+    <format dxfId="238">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16675,7 +15684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="580">
+    <format dxfId="237">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16693,7 +15702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="579">
+    <format dxfId="236">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16711,7 +15720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="578">
+    <format dxfId="235">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16729,7 +15738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="577">
+    <format dxfId="234">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16747,7 +15756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="576">
+    <format dxfId="233">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16765,7 +15774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="575">
+    <format dxfId="232">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16783,7 +15792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="574">
+    <format dxfId="231">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16801,7 +15810,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="573">
+    <format dxfId="230">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16819,7 +15828,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="572">
+    <format dxfId="229">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16837,7 +15846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="571">
+    <format dxfId="228">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16855,7 +15864,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="570">
+    <format dxfId="227">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16873,7 +15882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="569">
+    <format dxfId="226">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16891,7 +15900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="568">
+    <format dxfId="225">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16909,7 +15918,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="567">
+    <format dxfId="224">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16927,7 +15936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="566">
+    <format dxfId="223">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16945,7 +15954,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="565">
+    <format dxfId="222">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16963,7 +15972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="564">
+    <format dxfId="221">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16981,7 +15990,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="563">
+    <format dxfId="220">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -16999,7 +16008,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="562">
+    <format dxfId="219">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17017,7 +16026,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="561">
+    <format dxfId="218">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17035,7 +16044,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="560">
+    <format dxfId="217">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17053,7 +16062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="559">
+    <format dxfId="216">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17071,7 +16080,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="558">
+    <format dxfId="215">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17089,7 +16098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="557">
+    <format dxfId="214">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17107,7 +16116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="556">
+    <format dxfId="213">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17125,7 +16134,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="555">
+    <format dxfId="212">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17143,7 +16152,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="554">
+    <format dxfId="211">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17161,7 +16170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="553">
+    <format dxfId="210">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17179,7 +16188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="552">
+    <format dxfId="209">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17197,7 +16206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="551">
+    <format dxfId="208">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17215,7 +16224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="550">
+    <format dxfId="207">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17233,7 +16242,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="549">
+    <format dxfId="206">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17251,7 +16260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="548">
+    <format dxfId="205">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17269,7 +16278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="547">
+    <format dxfId="204">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17287,7 +16296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="546">
+    <format dxfId="203">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17305,7 +16314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="545">
+    <format dxfId="202">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17323,7 +16332,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="544">
+    <format dxfId="201">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17341,7 +16350,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="543">
+    <format dxfId="200">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17359,7 +16368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="542">
+    <format dxfId="199">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17377,7 +16386,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="541">
+    <format dxfId="198">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17395,7 +16404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="540">
+    <format dxfId="197">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17413,7 +16422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="539">
+    <format dxfId="196">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17431,7 +16440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="538">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17449,7 +16458,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="537">
+    <format dxfId="194">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17467,7 +16476,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="536">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17485,7 +16494,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="535">
+    <format dxfId="192">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17503,7 +16512,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="534">
+    <format dxfId="191">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17521,7 +16530,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="533">
+    <format dxfId="190">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17539,7 +16548,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="532">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17557,7 +16566,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="531">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17575,7 +16584,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="530">
+    <format dxfId="187">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17593,7 +16602,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="529">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17611,7 +16620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="528">
+    <format dxfId="185">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17629,7 +16638,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="527">
+    <format dxfId="184">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17647,7 +16656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="526">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17665,7 +16674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="525">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17683,7 +16692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="524">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17701,7 +16710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="523">
+    <format dxfId="180">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17719,7 +16728,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="522">
+    <format dxfId="179">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17737,7 +16746,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="521">
+    <format dxfId="178">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17755,7 +16764,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="520">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17773,7 +16782,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="519">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17791,7 +16800,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="518">
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17809,7 +16818,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="517">
+    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17827,7 +16836,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="516">
+    <format dxfId="173">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17845,7 +16854,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="515">
+    <format dxfId="172">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17863,7 +16872,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="514">
+    <format dxfId="171">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17881,7 +16890,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="513">
+    <format dxfId="170">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17899,7 +16908,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="512">
+    <format dxfId="169">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17917,7 +16926,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="511">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17935,7 +16944,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="510">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17953,7 +16962,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="509">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17971,7 +16980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="508">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -17989,7 +16998,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="507">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18007,7 +17016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="506">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18025,7 +17034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="505">
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18043,7 +17052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="504">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18061,7 +17070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="503">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18079,7 +17088,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="502">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18097,7 +17106,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="501">
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18115,7 +17124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="500">
+    <format dxfId="157">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18133,7 +17142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="499">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18151,7 +17160,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="498">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18169,7 +17178,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="497">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18187,7 +17196,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="496">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18205,7 +17214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="495">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18223,7 +17232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="494">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18241,7 +17250,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="493">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18259,7 +17268,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="492">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18277,7 +17286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="491">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18295,7 +17304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="490">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18313,7 +17322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="489">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18331,7 +17340,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="488">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18349,7 +17358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="487">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18367,7 +17376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="486">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18385,7 +17394,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="485">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18403,7 +17412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="484">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18421,7 +17430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="483">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18439,7 +17448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="482">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18457,7 +17466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="481">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18475,7 +17484,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="480">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18493,7 +17502,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="479">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18511,7 +17520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="478">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18529,7 +17538,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="477">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18547,7 +17556,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="476">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18565,7 +17574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="475">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18583,7 +17592,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="474">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18601,7 +17610,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="473">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18619,7 +17628,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="472">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18637,7 +17646,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="471">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18655,7 +17664,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="470">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18673,7 +17682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="469">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18691,7 +17700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="468">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18709,7 +17718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="467">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18727,7 +17736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="466">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18745,7 +17754,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="465">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18763,7 +17772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="464">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18781,7 +17790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="463">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18799,7 +17808,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="462">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18817,7 +17826,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="461">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18835,7 +17844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="460">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18853,7 +17862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="459">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18871,7 +17880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="458">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18889,7 +17898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="457">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18907,7 +17916,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="456">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18925,7 +17934,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="455">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18943,7 +17952,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="454">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18961,7 +17970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="453">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18979,7 +17988,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="452">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -18997,7 +18006,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="451">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19015,7 +18024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="450">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19033,7 +18042,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="449">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19051,7 +18060,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="448">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19069,7 +18078,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="447">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19087,7 +18096,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="446">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19105,7 +18114,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="445">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19123,7 +18132,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="444">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19141,7 +18150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="443">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19159,7 +18168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="442">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19177,7 +18186,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="441">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19195,7 +18204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="440">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19213,7 +18222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="439">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19231,7 +18240,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="438">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19249,7 +18258,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="437">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19267,7 +18276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="436">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19285,7 +18294,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="435">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19303,7 +18312,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="434">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19321,7 +18330,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="433">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19339,7 +18348,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="432">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19357,7 +18366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="431">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19375,7 +18384,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="430">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19393,7 +18402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="429">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19411,7 +18420,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="428">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19429,7 +18438,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="427">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19447,7 +18456,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="426">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19465,7 +18474,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="425">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19483,7 +18492,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="424">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19501,7 +18510,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="423">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19519,7 +18528,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="422">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19537,7 +18546,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="421">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19555,7 +18564,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="420">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19573,7 +18582,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="419">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19591,7 +18600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="418">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19609,7 +18618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="417">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19627,7 +18636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="416">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19645,7 +18654,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="415">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19663,7 +18672,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="414">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19681,7 +18690,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="413">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19699,7 +18708,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="412">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19717,7 +18726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="411">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19735,7 +18744,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="410">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19753,7 +18762,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="409">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19771,7 +18780,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="408">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19789,7 +18798,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="407">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19807,7 +18816,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="406">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19825,7 +18834,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="405">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19843,7 +18852,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="404">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19861,7 +18870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="403">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19879,7 +18888,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="402">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19897,7 +18906,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="401">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19915,7 +18924,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="400">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19933,7 +18942,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="399">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19951,7 +18960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="398">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19969,7 +18978,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="397">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -19987,7 +18996,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="396">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20005,7 +19014,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="395">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20023,7 +19032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="394">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20041,7 +19050,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="393">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20059,7 +19068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="392">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20077,7 +19086,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="391">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20095,7 +19104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="390">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20113,7 +19122,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="389">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20131,7 +19140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="388">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20149,7 +19158,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="387">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20167,7 +19176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="386">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20185,7 +19194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="385">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20203,7 +19212,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="384">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20221,7 +19230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="383">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20239,7 +19248,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="382">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20257,7 +19266,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="381">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20275,7 +19284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="380">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20293,7 +19302,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="379">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20311,7 +19320,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="378">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20329,7 +19338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="377">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20347,7 +19356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="376">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20365,7 +19374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="375">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20383,7 +19392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="374">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20401,7 +19410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="373">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20419,7 +19428,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="372">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20437,7 +19446,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="371">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20455,7 +19464,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="370">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20473,7 +19482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="369">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20491,7 +19500,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="368">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20509,7 +19518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="367">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20527,7 +19536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="366">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20545,7 +19554,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="365">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20563,7 +19572,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="364">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -20595,7 +19604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0F64B69-A8EF-4536-8E7C-2E426D3B6C78}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" showDrill="0" enableDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Source Data">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0F64B69-A8EF-4536-8E7C-2E426D3B6C78}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" showDrill="0" enableDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Source Data">
   <location ref="A4:D138" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -21395,21 +20404,21 @@
     <i/>
   </colItems>
   <formats count="3">
-    <format dxfId="363">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="362">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="361">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -21995,7 +21004,7 @@
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -22211,7 +21220,7 @@
         <v>411</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22363,7 +21372,7 @@
         <v>411</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -22386,7 +21395,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B38" s="79" t="s">
         <v>1146</v>
@@ -22400,7 +21409,7 @@
         <v>411</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -22433,77 +21442,77 @@
     <mergeCell ref="A14:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:C6 B7:C13">
-    <cfRule type="cellIs" dxfId="360" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="359" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C17">
-    <cfRule type="cellIs" dxfId="358" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="357" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C21">
-    <cfRule type="cellIs" dxfId="356" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="355" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25">
-    <cfRule type="cellIs" dxfId="354" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="353" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C29">
-    <cfRule type="cellIs" dxfId="352" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="351" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C33">
-    <cfRule type="cellIs" dxfId="350" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="349" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C37">
-    <cfRule type="cellIs" dxfId="348" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="347" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C41">
-    <cfRule type="cellIs" dxfId="346" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22620,18 +21629,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B14" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B15" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -22689,8 +21698,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22908,7 +21917,7 @@
         <v>44372</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -22916,13 +21925,13 @@
         <v>985</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C18" s="41">
         <v>44400</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -22934,7 +21943,7 @@
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="51" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -22942,13 +21951,13 @@
         <v>972</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C20" s="41">
         <v>44456</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -22956,13 +21965,13 @@
         <v>985</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C21" s="41">
         <v>44491</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -22976,7 +21985,7 @@
         <v>44567</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -22984,13 +21993,13 @@
         <v>985</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C23" s="41">
         <v>44567</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -22998,13 +22007,13 @@
         <v>972</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C24" s="41">
         <v>44607</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23012,13 +22021,13 @@
         <v>972</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C25" s="41">
         <v>44673</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23026,13 +22035,13 @@
         <v>985</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C26" s="41">
         <v>44673</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23040,13 +22049,13 @@
         <v>985</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C27" s="41">
         <v>44736</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23054,13 +22063,13 @@
         <v>985</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C28" s="41">
         <v>44834</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23068,20 +22077,28 @@
         <v>972</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C29" s="41">
         <v>44841</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="39" t="s">
+        <v>972</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C30" s="41">
+        <v>44889</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
@@ -23809,7 +22826,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D98">
-    <cfRule type="cellIs" dxfId="345" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23828,7 +22845,7 @@
   <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24168,14 +23185,14 @@
         <v>98</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H14" s="41">
         <v>44317</v>
@@ -24183,25 +23200,25 @@
       <c r="I14" s="39"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>11</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>1361</v>
+        <v>1431</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H15" s="41">
         <v>44317</v>
@@ -24214,20 +23231,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H16" s="41">
         <v>44487</v>
@@ -24246,14 +23263,14 @@
         <v>98</v>
       </c>
       <c r="D17" s="39" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>1286</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>1287</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H17" s="41">
         <v>44317</v>
@@ -24266,20 +23283,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H18" s="41">
         <v>44525</v>
@@ -24298,13 +23315,13 @@
         <v>134</v>
       </c>
       <c r="D19" s="39" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>1288</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>1289</v>
-      </c>
       <c r="F19" s="39" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>1034</v>
@@ -24328,13 +23345,13 @@
         <v>1008</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>1034</v>
@@ -24352,16 +23369,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="72" t="s">
@@ -24386,12 +23403,12 @@
         <v>98</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H22" s="41">
         <v>44609</v>
@@ -24410,10 +23427,10 @@
         <v>98</v>
       </c>
       <c r="D23" s="39" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>1345</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>1346</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -24432,14 +23449,14 @@
         <v>98</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H24" s="41">
         <v>44748</v>
@@ -24452,19 +23469,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>1034</v>
@@ -24475,15 +23492,29 @@
       <c r="I25" s="39"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>21</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>1430</v>
+      </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="G26" s="39" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H26" s="41">
+        <v>44889</v>
+      </c>
       <c r="I26" s="39"/>
       <c r="J26" s="3"/>
     </row>
@@ -31652,12 +30683,12 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="344" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A295">
-    <cfRule type="cellIs" dxfId="343" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31674,7 +30705,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -31752,7 +30783,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -31857,7 +30888,7 @@
     </row>
     <row r="39" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -31879,7 +30910,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B44" s="6"/>
     </row>
@@ -31889,13 +30920,13 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B47" s="88"/>
     </row>
@@ -31915,7 +30946,7 @@
     </row>
     <row r="51" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="88" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B51" s="88"/>
     </row>
@@ -31949,8 +30980,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32001,7 +31032,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -32009,7 +31040,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1397</v>
+        <v>123</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>121</v>
@@ -32021,7 +31052,7 @@
         <v>139</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -32041,7 +31072,7 @@
         <v>139</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -32061,7 +31092,7 @@
         <v>139</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -32117,7 +31148,7 @@
         <v>145</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -32137,7 +31168,7 @@
         <v>144</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -32157,24 +31188,24 @@
         <v>139</v>
       </c>
       <c r="F14" s="70" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>148</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -32192,13 +31223,13 @@
         <v>148</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>123</v>
@@ -32210,27 +31241,27 @@
         <v>147</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F17" s="81" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>123</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D18" s="62" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E18" s="62" t="s">
         <v>1296</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>1297</v>
       </c>
       <c r="F18" s="62"/>
     </row>
@@ -32584,7 +31615,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>937</v>
@@ -32599,10 +31630,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -32610,12 +31641,12 @@
         <v>111</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>937</v>
@@ -32623,18 +31654,18 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>
@@ -32673,7 +31704,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36725,13 +35756,13 @@
         <v>426</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>1020</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -37221,7 +36252,7 @@
         <v>401</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -37235,7 +36266,7 @@
         <v>401</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -37291,7 +36322,7 @@
         <v>401</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -37361,7 +36392,7 @@
         <v>337</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -37375,7 +36406,7 @@
         <v>401</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -37389,7 +36420,7 @@
         <v>401</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -37403,7 +36434,7 @@
         <v>793</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -37487,7 +36518,7 @@
         <v>337</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -37501,7 +36532,7 @@
         <v>337</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -37515,7 +36546,7 @@
         <v>337</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -37529,7 +36560,7 @@
         <v>337</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -37543,7 +36574,7 @@
         <v>337</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -37557,7 +36588,7 @@
         <v>337</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -37599,7 +36630,7 @@
         <v>337</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -37613,7 +36644,7 @@
         <v>337</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -37627,7 +36658,7 @@
         <v>337</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -37641,7 +36672,7 @@
         <v>337</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -37655,7 +36686,7 @@
         <v>337</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -37669,7 +36700,7 @@
         <v>337</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -37683,7 +36714,7 @@
         <v>337</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -37697,7 +36728,7 @@
         <v>337</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -37744,7 +36775,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>152</v>
@@ -37758,7 +36789,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>155</v>
@@ -37772,58 +36803,58 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B366" s="6" t="s">
         <v>1353</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>1354</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>401</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -37833,7 +36864,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D277">
-    <cfRule type="cellIs" dxfId="707" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38979,13 +38010,13 @@
         <v>426</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1020</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -46400,7 +45431,7 @@
         <v>401</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -46414,7 +45445,7 @@
         <v>401</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -46470,7 +45501,7 @@
         <v>401</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -46540,7 +45571,7 @@
         <v>337</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -46554,7 +45585,7 @@
         <v>401</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -46568,7 +45599,7 @@
         <v>401</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -46582,7 +45613,7 @@
         <v>793</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -46666,7 +45697,7 @@
         <v>337</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -46680,7 +45711,7 @@
         <v>337</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -46694,7 +45725,7 @@
         <v>337</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -46708,7 +45739,7 @@
         <v>337</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -46722,7 +45753,7 @@
         <v>337</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -46736,7 +45767,7 @@
         <v>337</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -46778,7 +45809,7 @@
         <v>337</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -46792,7 +45823,7 @@
         <v>337</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -46806,7 +45837,7 @@
         <v>337</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -46820,7 +45851,7 @@
         <v>337</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -46834,7 +45865,7 @@
         <v>337</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -46848,7 +45879,7 @@
         <v>337</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -46862,7 +45893,7 @@
         <v>337</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -46876,7 +45907,7 @@
         <v>337</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -46923,7 +45954,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>152</v>
@@ -46937,7 +45968,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>155</v>
@@ -46951,58 +45982,58 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B363" s="6" t="s">
         <v>1353</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>1354</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>401</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B366" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="D366" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -47056,7 +46087,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>112</v>
@@ -47101,7 +46132,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -47115,7 +46146,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -47171,7 +46202,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -47213,7 +46244,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -47227,7 +46258,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -47283,7 +46314,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -47367,7 +46398,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -47395,7 +46426,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -47479,7 +46510,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -47507,7 +46538,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -47689,7 +46720,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -47787,7 +46818,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -47843,7 +46874,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -47885,7 +46916,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -47899,7 +46930,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -47927,7 +46958,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -48212,7 +47243,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>9</v>
@@ -48226,7 +47257,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>0</v>
@@ -48240,7 +47271,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>1</v>
@@ -48249,12 +47280,12 @@
         <v>21</v>
       </c>
       <c r="D89" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>2</v>
@@ -48263,12 +47294,12 @@
         <v>21</v>
       </c>
       <c r="D90" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>7</v>
@@ -48282,7 +47313,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>3</v>
@@ -48291,7 +47322,7 @@
         <v>21</v>
       </c>
       <c r="D92" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -48319,7 +47350,7 @@
         <v>21</v>
       </c>
       <c r="D94" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -48333,7 +47364,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -48347,7 +47378,7 @@
         <v>21</v>
       </c>
       <c r="D96" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -48358,10 +47389,10 @@
         <v>7</v>
       </c>
       <c r="C97" s="61" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D97" s="67" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -48375,7 +47406,7 @@
         <v>116</v>
       </c>
       <c r="D98" s="67" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -48389,12 +47420,12 @@
         <v>21</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>9</v>
@@ -48408,7 +47439,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>0</v>
@@ -48422,13 +47453,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="61" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D102" s="67" t="s">
         <v>11</v>
@@ -48436,63 +47467,63 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="61" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D103" s="67" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D104" s="67" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="61" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D105" s="67" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="61" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D106" s="67" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>2</v>
@@ -48501,208 +47532,208 @@
         <v>15</v>
       </c>
       <c r="D107" s="67" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="61" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D108" s="67" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="61" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D109" s="67" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C110" s="61" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D110" s="67" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="61" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D111" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="61" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D112" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="61" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D113" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="61" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D114" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="61" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D115" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="61" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D116" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="61" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D117" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="61" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D118" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="61" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D119" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="61" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D120" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="61" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D121" s="67" t="s">
         <v>1264</v>
-      </c>
-      <c r="D121" s="67" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>7</v>
@@ -48711,26 +47742,26 @@
         <v>21</v>
       </c>
       <c r="D122" s="67" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D123" s="67" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>3</v>
@@ -48739,12 +47770,12 @@
         <v>118</v>
       </c>
       <c r="D124" s="67" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>3</v>
@@ -48753,12 +47784,12 @@
         <v>24</v>
       </c>
       <c r="D125" s="67" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>9</v>
@@ -48772,119 +47803,119 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D127" s="67" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D128" s="67" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C129" s="61" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D129" s="67" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C130" s="61" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D130" s="67" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C131" s="61" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D131" s="67" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D132" s="67" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C133" s="61" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D133" s="67" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="61" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D134" s="67" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>2</v>
@@ -48893,12 +47924,12 @@
         <v>21</v>
       </c>
       <c r="D135" s="67" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>2</v>
@@ -48907,12 +47938,12 @@
         <v>15</v>
       </c>
       <c r="D136" s="67" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>7</v>
@@ -48921,12 +47952,12 @@
         <v>21</v>
       </c>
       <c r="D137" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>3</v>
@@ -48935,7 +47966,7 @@
         <v>21</v>
       </c>
       <c r="D138" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -48986,7 +48017,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -49111,7 +48142,7 @@
         <v>99</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -49179,7 +48210,7 @@
         <v>99</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -49281,7 +48312,7 @@
         <v>99</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -49315,7 +48346,7 @@
         <v>99</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -49536,7 +48567,7 @@
         <v>99</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -49587,7 +48618,7 @@
         <v>99</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -49604,7 +48635,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -49638,7 +48669,7 @@
         <v>99</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -49740,7 +48771,7 @@
         <v>99</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -49774,7 +48805,7 @@
         <v>99</v>
       </c>
       <c r="E47" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -49825,7 +48856,7 @@
         <v>99</v>
       </c>
       <c r="E50" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -49842,7 +48873,7 @@
         <v>99</v>
       </c>
       <c r="E51" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -49910,7 +48941,7 @@
         <v>99</v>
       </c>
       <c r="E55" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -49961,7 +48992,7 @@
         <v>99</v>
       </c>
       <c r="E58" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -49978,7 +49009,7 @@
         <v>99</v>
       </c>
       <c r="E59" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -50046,7 +49077,7 @@
         <v>109</v>
       </c>
       <c r="E63" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -50391,13 +49422,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B84" s="57" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="63" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D84" s="57" t="s">
         <v>99</v>
@@ -50408,7 +49439,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B85" s="57" t="s">
         <v>0</v>
@@ -50425,7 +49456,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B86" s="59" t="s">
         <v>1</v>
@@ -50437,12 +49468,12 @@
         <v>99</v>
       </c>
       <c r="E86" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B87" s="59" t="s">
         <v>2</v>
@@ -50454,12 +49485,12 @@
         <v>99</v>
       </c>
       <c r="E87" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B88" s="59" t="s">
         <v>7</v>
@@ -50476,7 +49507,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B89" s="59" t="s">
         <v>3</v>
@@ -50488,7 +49519,7 @@
         <v>99</v>
       </c>
       <c r="E89" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -50522,7 +49553,7 @@
         <v>99</v>
       </c>
       <c r="E91" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -50539,7 +49570,7 @@
         <v>99</v>
       </c>
       <c r="E92" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -50556,7 +49587,7 @@
         <v>99</v>
       </c>
       <c r="E93" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -50567,13 +49598,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="63" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D94" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E94" s="60" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -50584,13 +49615,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="63" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D95" s="63" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E95" s="63" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -50607,12 +49638,12 @@
         <v>99</v>
       </c>
       <c r="E96" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B97" s="60" t="s">
         <v>9</v>
@@ -50629,7 +49660,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B98" s="60" t="s">
         <v>0</v>
@@ -50646,13 +49677,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B99" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="63" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D99" s="60" t="s">
         <v>99</v>
@@ -50663,109 +49694,109 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B100" s="60" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="63" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>1245</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B101" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="63" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D101" s="63" t="s">
         <v>1237</v>
       </c>
-      <c r="D101" s="63" t="s">
-        <v>1238</v>
-      </c>
       <c r="E101" s="63" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B102" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C102" s="63" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E102" s="63" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B103" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="63" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D103" s="63" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E103" s="63" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B104" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="63" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D104" s="63" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E104" s="63" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B105" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="63" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D105" s="63" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E105" s="63" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B106" s="63" t="s">
         <v>2</v>
@@ -50774,32 +49805,32 @@
         <v>105</v>
       </c>
       <c r="D106" s="63" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E106" s="63" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B107" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="63" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D107" s="63" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E107" s="63" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B108" s="60" t="s">
         <v>7</v>
@@ -50808,236 +49839,236 @@
         <v>21</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B109" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B110" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="64" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B111" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B112" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D112" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B113" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="64" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D113" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B114" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D114" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B115" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D115" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B116" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D116" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B117" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D117" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B118" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D118" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B119" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="64" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D119" s="65" t="s">
         <v>1264</v>
       </c>
-      <c r="D119" s="65" t="s">
-        <v>1265</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B120" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="63" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B121" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E121" s="63" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B122" s="63" t="s">
         <v>3</v>
@@ -51046,15 +50077,15 @@
         <v>24</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B123" s="66" t="s">
         <v>9</v>
@@ -51071,143 +50102,143 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B124" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="63" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E124" s="65" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B125" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="63" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E125" s="65" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B126" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="63" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D126" s="65" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E126" s="65" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B127" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="63" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D127" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B128" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="63" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D128" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B129" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="63" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D129" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E129" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B130" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D130" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E130" s="65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B131" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D131" s="65" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E131" s="65" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B132" s="66" t="s">
         <v>2</v>
@@ -51216,15 +50247,15 @@
         <v>21</v>
       </c>
       <c r="D132" s="65" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B133" s="66" t="s">
         <v>2</v>
@@ -51233,15 +50264,15 @@
         <v>105</v>
       </c>
       <c r="D133" s="65" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B134" s="66" t="s">
         <v>7</v>
@@ -51253,12 +50284,12 @@
         <v>99</v>
       </c>
       <c r="E134" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B135" s="66" t="s">
         <v>3</v>
@@ -51270,7 +50301,7 @@
         <v>99</v>
       </c>
       <c r="E135" s="66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -51286,8 +50317,8 @@
   <dimension ref="A1:J342"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="4" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F323" sqref="F323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51650,10 +50681,10 @@
         <v>437</v>
       </c>
       <c r="D15" s="51" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E15" s="54" t="s">
         <v>1377</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>1379</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="51" t="s">
@@ -51677,10 +50708,10 @@
         <v>437</v>
       </c>
       <c r="D16" s="51" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E16" s="54" t="s">
         <v>1378</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>1380</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="51" t="s">
@@ -51900,13 +50931,13 @@
         <v>437</v>
       </c>
       <c r="D24" s="51" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E24" s="54" t="s">
         <v>1275</v>
       </c>
-      <c r="E24" s="54" t="s">
-        <v>1276</v>
-      </c>
       <c r="F24" s="54" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G24" s="51" t="s">
         <v>1020</v>
@@ -55235,7 +54266,7 @@
         <v>621</v>
       </c>
       <c r="F140" s="54" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G140" s="51" t="s">
         <v>1020</v>
@@ -55443,7 +54474,7 @@
         <v>628</v>
       </c>
       <c r="F147" s="54" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G147" s="51" t="s">
         <v>1020</v>
@@ -55452,7 +54483,7 @@
         <v>443</v>
       </c>
       <c r="I147" s="50" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J147" s="6"/>
     </row>
@@ -55473,7 +54504,7 @@
         <v>630</v>
       </c>
       <c r="F148" s="54" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G148" s="51" t="s">
         <v>1020</v>
@@ -55482,7 +54513,7 @@
         <v>443</v>
       </c>
       <c r="I148" s="50" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J148" s="6"/>
     </row>
@@ -55503,7 +54534,7 @@
         <v>632</v>
       </c>
       <c r="F149" s="54" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G149" s="51" t="s">
         <v>1020</v>
@@ -55533,7 +54564,7 @@
         <v>634</v>
       </c>
       <c r="F150" s="54" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G150" s="51" t="s">
         <v>1020</v>
@@ -55905,7 +54936,7 @@
         <v>652</v>
       </c>
       <c r="F163" s="54" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G163" s="51" t="s">
         <v>1020</v>
@@ -59485,7 +58516,7 @@
         <v>766</v>
       </c>
       <c r="F293" s="54" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G293" s="51" t="s">
         <v>1020</v>
@@ -59515,7 +58546,7 @@
         <v>767</v>
       </c>
       <c r="F294" s="54" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G294" s="51" t="s">
         <v>1020</v>
@@ -59842,10 +58873,10 @@
         <v>361</v>
       </c>
       <c r="E305" s="54" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F305" s="54" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G305" s="51" t="s">
         <v>401</v>
@@ -59872,10 +58903,10 @@
         <v>362</v>
       </c>
       <c r="E306" s="54" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F306" s="54" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G306" s="51" t="s">
         <v>401</v>
@@ -59962,7 +58993,7 @@
         <v>365</v>
       </c>
       <c r="E309" s="54" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="F309" s="54"/>
       <c r="G309" s="51" t="s">
@@ -59990,10 +59021,10 @@
         <v>366</v>
       </c>
       <c r="E310" s="54" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F310" s="54" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G310" s="51" t="s">
         <v>401</v>
@@ -60036,7 +59067,7 @@
       </c>
       <c r="J311" s="6"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A312" s="51" t="s">
         <v>427</v>
       </c>
@@ -60050,10 +59081,10 @@
         <v>368</v>
       </c>
       <c r="E312" s="54" t="s">
-        <v>1199</v>
+        <v>1419</v>
       </c>
       <c r="F312" s="54" t="s">
-        <v>1200</v>
+        <v>1420</v>
       </c>
       <c r="G312" s="51" t="s">
         <v>337</v>
@@ -60132,16 +59163,16 @@
         <v>917</v>
       </c>
       <c r="C315" s="51" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D315" s="51" t="s">
         <v>371</v>
       </c>
       <c r="E315" s="54" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F315" s="54" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G315" s="51" t="s">
         <v>337</v>
@@ -60160,16 +59191,16 @@
         <v>917</v>
       </c>
       <c r="C316" s="51" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D316" s="51" t="s">
         <v>372</v>
       </c>
       <c r="E316" s="54" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F316" s="54" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G316" s="51" t="s">
         <v>401</v>
@@ -60188,16 +59219,16 @@
         <v>917</v>
       </c>
       <c r="C317" s="51" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D317" s="51" t="s">
         <v>373</v>
       </c>
       <c r="E317" s="54" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F317" s="54" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G317" s="51" t="s">
         <v>401</v>
@@ -60222,7 +59253,7 @@
         <v>374</v>
       </c>
       <c r="E318" s="54" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F318" s="54"/>
       <c r="G318" s="51" t="s">
@@ -60244,13 +59275,13 @@
         <v>917</v>
       </c>
       <c r="C319" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D319" s="51" t="s">
         <v>375</v>
       </c>
       <c r="E319" s="54" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F319" s="54"/>
       <c r="G319" s="51" t="s">
@@ -60270,13 +59301,13 @@
         <v>917</v>
       </c>
       <c r="C320" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D320" s="51" t="s">
         <v>376</v>
       </c>
       <c r="E320" s="54" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F320" s="54"/>
       <c r="G320" s="51" t="s">
@@ -60296,13 +59327,13 @@
         <v>917</v>
       </c>
       <c r="C321" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D321" s="51" t="s">
         <v>377</v>
       </c>
       <c r="E321" s="54" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F321" s="54"/>
       <c r="G321" s="51" t="s">
@@ -60322,13 +59353,13 @@
         <v>917</v>
       </c>
       <c r="C322" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D322" s="51" t="s">
         <v>378</v>
       </c>
       <c r="E322" s="54" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F322" s="54"/>
       <c r="G322" s="51" t="s">
@@ -60348,13 +59379,13 @@
         <v>917</v>
       </c>
       <c r="C323" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D323" s="51" t="s">
         <v>379</v>
       </c>
       <c r="E323" s="54" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F323" s="54"/>
       <c r="G323" s="51" t="s">
@@ -60374,16 +59405,16 @@
         <v>917</v>
       </c>
       <c r="C324" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D324" s="51" t="s">
         <v>380</v>
       </c>
       <c r="E324" s="54" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F324" s="54" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G324" s="51" t="s">
         <v>337</v>
@@ -60402,16 +59433,16 @@
         <v>917</v>
       </c>
       <c r="C325" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D325" s="51" t="s">
         <v>381</v>
       </c>
       <c r="E325" s="54" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F325" s="54" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G325" s="51" t="s">
         <v>337</v>
@@ -60430,20 +59461,20 @@
         <v>917</v>
       </c>
       <c r="C326" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D326" s="51" t="s">
         <v>382</v>
       </c>
       <c r="E326" s="54" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F326" s="54"/>
       <c r="G326" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H326" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I326" s="51"/>
       <c r="J326" s="6"/>
@@ -60456,20 +59487,20 @@
         <v>917</v>
       </c>
       <c r="C327" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D327" s="51" t="s">
         <v>383</v>
       </c>
       <c r="E327" s="54" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F327" s="54"/>
       <c r="G327" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H327" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I327" s="51"/>
       <c r="J327" s="6"/>
@@ -60482,13 +59513,13 @@
         <v>917</v>
       </c>
       <c r="C328" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D328" s="51" t="s">
         <v>384</v>
       </c>
       <c r="E328" s="54" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F328" s="54"/>
       <c r="G328" s="51" t="s">
@@ -60508,13 +59539,13 @@
         <v>917</v>
       </c>
       <c r="C329" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D329" s="51" t="s">
         <v>385</v>
       </c>
       <c r="E329" s="54" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F329" s="54"/>
       <c r="G329" s="51" t="s">
@@ -60534,7 +59565,7 @@
         <v>917</v>
       </c>
       <c r="C330" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D330" s="51" t="s">
         <v>386</v>
@@ -60560,13 +59591,13 @@
         <v>917</v>
       </c>
       <c r="C331" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D331" s="51" t="s">
         <v>387</v>
       </c>
       <c r="E331" s="54" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F331" s="54"/>
       <c r="G331" s="51" t="s">
@@ -60586,20 +59617,20 @@
         <v>917</v>
       </c>
       <c r="C332" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D332" s="51" t="s">
         <v>388</v>
       </c>
       <c r="E332" s="54" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F332" s="54"/>
       <c r="G332" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H332" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I332" s="51"/>
       <c r="J332" s="6"/>
@@ -60612,20 +59643,20 @@
         <v>917</v>
       </c>
       <c r="C333" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D333" s="51" t="s">
         <v>389</v>
       </c>
       <c r="E333" s="54" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F333" s="54"/>
       <c r="G333" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H333" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I333" s="51"/>
       <c r="J333" s="6"/>
@@ -60638,20 +59669,20 @@
         <v>917</v>
       </c>
       <c r="C334" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D334" s="51" t="s">
         <v>390</v>
       </c>
       <c r="E334" s="54" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F334" s="54"/>
       <c r="G334" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H334" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I334" s="51"/>
       <c r="J334" s="6"/>
@@ -60664,20 +59695,20 @@
         <v>917</v>
       </c>
       <c r="C335" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D335" s="51" t="s">
         <v>391</v>
       </c>
       <c r="E335" s="54" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F335" s="54"/>
       <c r="G335" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H335" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I335" s="51"/>
       <c r="J335" s="6"/>
@@ -60690,20 +59721,20 @@
         <v>917</v>
       </c>
       <c r="C336" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D336" s="51" t="s">
         <v>392</v>
       </c>
       <c r="E336" s="54" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F336" s="54"/>
       <c r="G336" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H336" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I336" s="51"/>
       <c r="J336" s="6"/>
@@ -60716,20 +59747,20 @@
         <v>917</v>
       </c>
       <c r="C337" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D337" s="51" t="s">
         <v>393</v>
       </c>
       <c r="E337" s="54" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F337" s="54"/>
       <c r="G337" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H337" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I337" s="51"/>
       <c r="J337" s="6"/>
@@ -60742,20 +59773,20 @@
         <v>917</v>
       </c>
       <c r="C338" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D338" s="51" t="s">
         <v>394</v>
       </c>
       <c r="E338" s="54" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F338" s="54"/>
       <c r="G338" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H338" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I338" s="51"/>
       <c r="J338" s="6"/>
@@ -60768,20 +59799,20 @@
         <v>917</v>
       </c>
       <c r="C339" s="51" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D339" s="51" t="s">
         <v>395</v>
       </c>
       <c r="E339" s="54" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F339" s="54"/>
       <c r="G339" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H339" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I339" s="51"/>
       <c r="J339" s="6"/>
@@ -60800,7 +59831,7 @@
         <v>396</v>
       </c>
       <c r="E340" s="54" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F340" s="54"/>
       <c r="G340" s="51" t="s">
@@ -60826,7 +59857,7 @@
         <v>397</v>
       </c>
       <c r="E341" s="54" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="51" t="s">
@@ -60869,6 +59900,7 @@
       <c r="J342" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:I342" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:C2"/>
@@ -60883,10 +59915,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6C01C2-79F9-4E77-83E6-DBE190C885DC}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="K26" sqref="K26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60898,7 +59930,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B1" s="93"/>
     </row>
@@ -60910,15 +59942,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -60934,7 +59966,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B9" s="83">
         <v>44565</v>
@@ -60952,7 +59984,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B11" s="83">
         <v>43983</v>
@@ -60961,7 +59993,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B12" s="83">
         <v>43739</v>
@@ -60970,7 +60002,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B13" s="83">
         <v>44562</v>
@@ -60979,7 +60011,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B14" s="83">
         <v>44562</v>
@@ -60988,7 +60020,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B15" s="83">
         <v>43739</v>
@@ -61031,8 +60063,69 @@
       </c>
       <c r="D19" s="82"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B20" s="83">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B21" s="83">
+        <v>44837</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B22" s="83">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B23" s="83">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B24" s="83">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B25" s="83">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B26" s="83">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B27" s="83">
+        <v>44837</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SWD User Guide.xlsx
+++ b/SWD User Guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Finance\Shared Area\BNSSG - BI\10 Infrastructure\04 - Data Management\System Wide Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0C3D5-4A41-4A65-9583-2E9B900AA6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F7B65-075A-4ECA-8155-6D2C3592D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Attributes Data Dictionary'!$A$4:$I$276</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Source Summary'!$A$25:$I$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data Tables and Fields Data'!$A$1:$D$309</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Issue Log'!$A$4:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Issue Log'!$A$4:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Measurements!$A$7:$C$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'POD Mapping Data'!$A$1:$E$134</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Version History'!$A$4:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Version History'!$A$4:$D$4</definedName>
     <definedName name="Slicer_POD_Type">#N/A</definedName>
     <definedName name="Slicer_POD_Value">#N/A</definedName>
     <definedName name="Slicer_Source_Data">#N/A</definedName>
@@ -41,8 +42,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId14"/>
-    <pivotCache cacheId="7" r:id="rId15"/>
+    <pivotCache cacheId="89" r:id="rId14"/>
+    <pivotCache cacheId="90" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7172" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6522" uniqueCount="1324">
   <si>
     <t>pod_l2a</t>
   </si>
@@ -4117,18 +4118,9 @@
     <t>Prostate Conditions flag</t>
   </si>
   <si>
-    <t>Yate and Frampton frailty cohort</t>
-  </si>
-  <si>
-    <t>Frailty</t>
-  </si>
-  <si>
     <t>sup_metric_42</t>
   </si>
   <si>
-    <t>temporary flag to faciliate identification of Yate and Frampton frailty cohort</t>
-  </si>
-  <si>
     <t>added columns sup_metric_41 and sup_metric_42 to swd_supplemental table - these hold prostate conditions flag and Yate and Frampton frailty cohort flag respectively</t>
   </si>
   <si>
@@ -4148,9 +4140,6 @@
   </si>
   <si>
     <t>replacement pseudo file received from CSU and loaded to SWD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity for Monks Park GP practice not included in data from November 22 onwards due to technical DSA being switched off in EMIS.   Attributes data also missing from December. </t>
   </si>
   <si>
     <t>Escalated to primary care contacts. 
@@ -4310,6 +4299,99 @@
   </si>
   <si>
     <t>Any record with a commissioner code (first 3 characters) not in following list: '5M8','11T','5QJ','11H','5A3','12A','15C','14F','Q65','QUY'</t>
+  </si>
+  <si>
+    <t>cholesterol - hdl</t>
+  </si>
+  <si>
+    <t>cholesterol - hdl:nhdl</t>
+  </si>
+  <si>
+    <t>cholesterol - ldl</t>
+  </si>
+  <si>
+    <t>cholesterol - nhdl</t>
+  </si>
+  <si>
+    <t>cholesterol - tc</t>
+  </si>
+  <si>
+    <t>cholesterol - tc:hdl</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>dialog 1</t>
+  </si>
+  <si>
+    <t>dialog 2</t>
+  </si>
+  <si>
+    <t>dialog 3</t>
+  </si>
+  <si>
+    <t>dialog 4</t>
+  </si>
+  <si>
+    <t>dialog 5</t>
+  </si>
+  <si>
+    <t>dialog 6</t>
+  </si>
+  <si>
+    <t>dialog 7</t>
+  </si>
+  <si>
+    <t>dialog 8</t>
+  </si>
+  <si>
+    <t>dialog 9</t>
+  </si>
+  <si>
+    <t>dialog 10</t>
+  </si>
+  <si>
+    <t>dialog 11</t>
+  </si>
+  <si>
+    <t>faecal_calprotectin</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Replaced by constituent parts of cholesterol score in april 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes and activity for Southmead &amp; Henbury - L81067 - are not included in primary care data submissions from March 2023 onwards due to the technical DSA being disabled in EMIS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">historical SMI measurements data received but coverage patchy and includes activity for dates in future. </t>
+  </si>
+  <si>
+    <t>Queried with One Care for clarification.</t>
+  </si>
+  <si>
+    <t>respect form data now included for live patients but not consistent with original specification with resepect to columns sup_metric_23/24 - only one date included where up to 4 expected</t>
+  </si>
+  <si>
+    <t>Activity for Monks Park GP practice not included in data from November 22 onwards due to technical DSA being switched off in EMIS.   Attributes data also missing from December 22 and potential issue with incompleteness for October 22 also so caution must be taken.</t>
+  </si>
+  <si>
+    <t>new cholesterol measurement data received splitting into constituent results but volumes vastly different with there being 80k for 'cholesterol' in March 23 and up to 15k records per new measurement.</t>
+  </si>
+  <si>
+    <t>crp</t>
+  </si>
+  <si>
+    <t>flags whether patient is on anticipatory care list</t>
+  </si>
+  <si>
+    <t>temporary flag to faciliate specific work stream</t>
+  </si>
+  <si>
+    <t>Anticipatory Care</t>
   </si>
 </sst>
 </file>
@@ -4548,7 +4630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4684,9 +4766,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4726,23 +4805,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10006,13 +10085,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Table Name">
-  <location ref="A4:D200" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Table Name">
+  <location ref="A4:D27" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
@@ -10850,637 +10929,47 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="196">
+  <rowItems count="23">
     <i>
+      <x/>
+      <x v="10"/>
       <x v="1"/>
-      <x/>
-      <x v="18"/>
-      <x v="179"/>
+      <x v="203"/>
     </i>
     <i r="1">
-      <x v="1"/>
-      <x v="18"/>
-      <x/>
+      <x v="13"/>
+      <x v="5"/>
+      <x v="205"/>
     </i>
     <i r="1">
+      <x v="75"/>
       <x v="2"/>
-      <x v="18"/>
-      <x v="10"/>
+      <x v="199"/>
     </i>
     <i r="1">
-      <x v="3"/>
-      <x v="17"/>
-      <x v="135"/>
+      <x v="76"/>
+      <x v="9"/>
+      <x v="291"/>
     </i>
     <i r="1">
-      <x v="4"/>
-      <x v="16"/>
-      <x v="1"/>
+      <x v="77"/>
+      <x v="2"/>
+      <x v="292"/>
     </i>
     <i r="1">
-      <x v="5"/>
-      <x v="16"/>
-      <x v="2"/>
+      <x v="78"/>
+      <x v="9"/>
+      <x v="293"/>
     </i>
     <i r="1">
-      <x v="6"/>
-      <x v="18"/>
-      <x v="6"/>
+      <x v="87"/>
+      <x v="1"/>
+      <x v="204"/>
     </i>
     <i r="1">
+      <x v="111"/>
       <x v="7"/>
-      <x v="18"/>
-      <x v="92"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-      <x v="18"/>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-      <x v="18"/>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-      <x v="18"/>
-      <x v="129"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-      <x v="18"/>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-      <x v="18"/>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-      <x v="18"/>
-      <x v="102"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-      <x v="2"/>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-      <x v="11"/>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-      <x v="11"/>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-      <x v="18"/>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-      <x v="18"/>
-      <x v="307"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-      <x v="18"/>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-      <x v="18"/>
-      <x v="297"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-      <x v="18"/>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-      <x v="18"/>
-      <x v="296"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-      <x v="18"/>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-      <x v="18"/>
-      <x v="300"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-      <x v="18"/>
-      <x v="182"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-      <x v="18"/>
-      <x v="304"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-      <x v="18"/>
-      <x v="77"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-      <x v="18"/>
-      <x v="303"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-      <x v="18"/>
-      <x v="95"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-      <x v="18"/>
-      <x v="308"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-      <x v="18"/>
-      <x v="100"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-      <x v="18"/>
-      <x v="299"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-      <x v="18"/>
-      <x v="103"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-      <x v="18"/>
-      <x v="295"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-      <x v="18"/>
-      <x v="106"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-      <x v="18"/>
-      <x v="302"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-      <x v="18"/>
-      <x v="107"/>
-    </i>
-    <i r="1">
-      <x v="40"/>
-      <x v="18"/>
-      <x v="306"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-      <x v="19"/>
-      <x v="123"/>
-    </i>
-    <i r="1">
-      <x v="42"/>
-      <x v="19"/>
-      <x v="123"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-      <x v="18"/>
-      <x v="128"/>
-    </i>
-    <i r="1">
-      <x v="44"/>
-      <x v="18"/>
-      <x v="305"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-      <x v="18"/>
-      <x v="133"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-      <x v="18"/>
-      <x v="301"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-      <x v="18"/>
-      <x v="146"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-      <x v="18"/>
-      <x v="298"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-      <x v="18"/>
-      <x v="131"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-      <x v="18"/>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="69"/>
-      <x v="18"/>
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="70"/>
-      <x v="18"/>
-      <x v="75"/>
-    </i>
-    <i r="1">
-      <x v="71"/>
-      <x v="18"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="73"/>
-      <x v="18"/>
-      <x v="192"/>
-    </i>
-    <i r="1">
-      <x v="74"/>
-      <x v="18"/>
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="81"/>
-      <x v="18"/>
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="82"/>
-      <x v="18"/>
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="83"/>
-      <x v="18"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="84"/>
-      <x v="18"/>
-      <x v="52"/>
-    </i>
-    <i r="1">
-      <x v="85"/>
-      <x v="18"/>
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="86"/>
-      <x v="18"/>
-      <x v="54"/>
-    </i>
-    <i r="1">
-      <x v="88"/>
-      <x v="18"/>
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x v="89"/>
-      <x v="18"/>
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="90"/>
-      <x v="18"/>
-      <x v="173"/>
-    </i>
-    <i r="1">
-      <x v="91"/>
-      <x v="18"/>
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="92"/>
-      <x v="18"/>
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="93"/>
-      <x v="18"/>
-      <x v="71"/>
-    </i>
-    <i r="1">
-      <x v="94"/>
-      <x v="18"/>
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x v="95"/>
-      <x v="18"/>
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="96"/>
-      <x v="18"/>
-      <x v="138"/>
-    </i>
-    <i r="1">
-      <x v="97"/>
-      <x v="18"/>
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="99"/>
-      <x v="18"/>
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="100"/>
-      <x v="2"/>
-      <x v="61"/>
-    </i>
-    <i r="1">
-      <x v="101"/>
-      <x v="2"/>
-      <x v="96"/>
-    </i>
-    <i r="1">
-      <x v="102"/>
-      <x v="18"/>
-      <x v="132"/>
-    </i>
-    <i r="1">
-      <x v="103"/>
-      <x v="18"/>
-      <x v="63"/>
-    </i>
-    <i r="1">
-      <x v="104"/>
-      <x v="18"/>
-      <x v="62"/>
-    </i>
-    <i r="1">
-      <x v="105"/>
-      <x v="18"/>
-      <x v="190"/>
-    </i>
-    <i r="1">
-      <x v="106"/>
-      <x v="18"/>
-      <x v="64"/>
-    </i>
-    <i r="1">
-      <x v="107"/>
-      <x v="19"/>
-      <x v="65"/>
-    </i>
-    <i r="1">
-      <x v="108"/>
-      <x v="18"/>
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="109"/>
-      <x v="2"/>
-      <x v="97"/>
-    </i>
-    <i r="1">
-      <x v="110"/>
-      <x v="18"/>
-      <x v="69"/>
-    </i>
-    <i r="1">
-      <x v="112"/>
-      <x v="19"/>
-      <x v="70"/>
-    </i>
-    <i r="1">
-      <x v="113"/>
-      <x v="18"/>
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="114"/>
-      <x v="19"/>
-      <x v="73"/>
-    </i>
-    <i r="1">
-      <x v="115"/>
-      <x v="18"/>
-      <x v="76"/>
-    </i>
-    <i r="1">
-      <x v="117"/>
-      <x v="18"/>
-      <x v="120"/>
-    </i>
-    <i r="1">
-      <x v="118"/>
-      <x v="18"/>
-      <x v="78"/>
-    </i>
-    <i r="1">
-      <x v="119"/>
-      <x v="18"/>
-      <x v="80"/>
-    </i>
-    <i r="1">
-      <x v="120"/>
-      <x v="18"/>
-      <x v="81"/>
-    </i>
-    <i r="1">
-      <x v="121"/>
-      <x v="18"/>
-      <x v="79"/>
-    </i>
-    <i r="1">
-      <x v="122"/>
-      <x v="18"/>
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="124"/>
-      <x v="18"/>
-      <x v="84"/>
-    </i>
-    <i r="1">
-      <x v="125"/>
-      <x v="18"/>
-      <x v="85"/>
-    </i>
-    <i r="1">
-      <x v="126"/>
-      <x v="18"/>
-      <x v="86"/>
-    </i>
-    <i r="1">
-      <x v="127"/>
-      <x v="18"/>
-      <x v="91"/>
-    </i>
-    <i r="1">
-      <x v="128"/>
-      <x v="18"/>
-      <x v="93"/>
-    </i>
-    <i r="1">
-      <x v="129"/>
-      <x v="18"/>
-      <x v="113"/>
-    </i>
-    <i r="1">
-      <x v="130"/>
-      <x v="18"/>
-      <x v="122"/>
-    </i>
-    <i r="1">
-      <x v="131"/>
-      <x v="18"/>
-      <x v="183"/>
-    </i>
-    <i r="1">
-      <x v="132"/>
-      <x v="19"/>
-      <x v="87"/>
-    </i>
-    <i r="1">
-      <x v="133"/>
-      <x v="18"/>
-      <x v="90"/>
-    </i>
-    <i r="1">
-      <x v="134"/>
-      <x v="18"/>
-      <x v="94"/>
-    </i>
-    <i r="1">
-      <x v="135"/>
-      <x v="18"/>
-      <x v="193"/>
-    </i>
-    <i r="1">
-      <x v="136"/>
-      <x v="18"/>
-      <x v="99"/>
-    </i>
-    <i r="1">
-      <x v="137"/>
-      <x v="18"/>
-      <x v="66"/>
-    </i>
-    <i r="1">
-      <x v="138"/>
-      <x v="18"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="139"/>
-      <x v="18"/>
-      <x v="121"/>
-    </i>
-    <i r="1">
-      <x v="140"/>
-      <x v="18"/>
-      <x v="130"/>
-    </i>
-    <i r="1">
-      <x v="141"/>
-      <x v="19"/>
-      <x v="189"/>
-    </i>
-    <i r="1">
-      <x v="142"/>
-      <x v="18"/>
-      <x v="171"/>
-    </i>
-    <i r="1">
-      <x v="143"/>
-      <x v="18"/>
-      <x v="104"/>
-    </i>
-    <i r="1">
-      <x v="144"/>
-      <x v="19"/>
-      <x v="105"/>
-    </i>
-    <i r="1">
-      <x v="145"/>
-      <x v="18"/>
-      <x v="67"/>
-    </i>
-    <i r="1">
-      <x v="146"/>
-      <x v="18"/>
-      <x v="108"/>
-    </i>
-    <i r="1">
-      <x v="147"/>
-      <x v="18"/>
-      <x v="109"/>
-    </i>
-    <i r="1">
-      <x v="148"/>
-      <x v="18"/>
-      <x v="184"/>
-    </i>
-    <i r="1">
-      <x v="149"/>
-      <x v="18"/>
-      <x v="185"/>
-    </i>
-    <i r="1">
-      <x v="150"/>
-      <x v="18"/>
-      <x v="111"/>
-    </i>
-    <i r="1">
-      <x v="151"/>
-      <x v="2"/>
-      <x v="98"/>
-    </i>
-    <i r="1">
-      <x v="152"/>
-      <x v="18"/>
-      <x v="112"/>
-    </i>
-    <i r="1">
-      <x v="153"/>
-      <x v="18"/>
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="154"/>
-      <x v="18"/>
-      <x v="114"/>
-    </i>
-    <i r="1">
-      <x v="155"/>
-      <x v="18"/>
-      <x v="88"/>
-    </i>
-    <i r="1">
-      <x v="156"/>
-      <x v="2"/>
-      <x v="89"/>
-    </i>
-    <i r="1">
-      <x v="157"/>
-      <x v="18"/>
-      <x v="101"/>
+      <x v="200"/>
     </i>
     <i r="1">
       <x v="158"/>
@@ -11488,349 +10977,74 @@
       <x v="147"/>
     </i>
     <i r="1">
-      <x v="159"/>
-      <x v="18"/>
-      <x v="5"/>
+      <x v="167"/>
+      <x v="19"/>
+      <x v="197"/>
     </i>
     <i r="1">
-      <x v="160"/>
-      <x v="18"/>
-      <x v="124"/>
+      <x v="168"/>
+      <x v="12"/>
+      <x v="198"/>
     </i>
     <i r="1">
-      <x v="161"/>
-      <x v="18"/>
-      <x v="294"/>
+      <x v="169"/>
+      <x v="19"/>
+      <x v="198"/>
     </i>
     <i r="1">
-      <x v="162"/>
-      <x v="18"/>
-      <x v="126"/>
+      <x v="170"/>
+      <x v="19"/>
+      <x v="198"/>
     </i>
     <i r="1">
-      <x v="163"/>
-      <x v="18"/>
-      <x v="127"/>
+      <x v="171"/>
+      <x v="19"/>
+      <x v="201"/>
     </i>
     <i r="1">
-      <x v="164"/>
-      <x v="18"/>
-      <x v="134"/>
+      <x v="172"/>
+      <x v="19"/>
+      <x v="202"/>
     </i>
     <i r="1">
-      <x v="165"/>
-      <x v="18"/>
-      <x v="42"/>
+      <x v="181"/>
+      <x v="3"/>
+      <x v="206"/>
     </i>
     <i r="1">
-      <x v="166"/>
-      <x v="18"/>
-      <x v="139"/>
+      <x v="219"/>
+      <x v="19"/>
+      <x v="290"/>
     </i>
     <i r="1">
-      <x v="173"/>
-      <x v="18"/>
-      <x v="140"/>
+      <x v="220"/>
+      <x v="21"/>
+      <x v="290"/>
     </i>
     <i r="1">
-      <x v="174"/>
-      <x v="17"/>
-      <x v="141"/>
+      <x v="221"/>
+      <x v="19"/>
+      <x v="290"/>
     </i>
     <i r="1">
-      <x v="175"/>
-      <x v="17"/>
-      <x v="142"/>
+      <x v="222"/>
+      <x v="19"/>
+      <x v="290"/>
     </i>
     <i r="1">
-      <x v="176"/>
-      <x v="19"/>
-      <x v="169"/>
+      <x v="348"/>
+      <x v="12"/>
+      <x v="280"/>
     </i>
     <i r="1">
-      <x v="177"/>
-      <x v="18"/>
-      <x v="191"/>
-    </i>
-    <i r="1">
-      <x v="178"/>
-      <x v="19"/>
-      <x v="143"/>
-    </i>
-    <i r="1">
-      <x v="179"/>
-      <x v="18"/>
-      <x v="144"/>
-    </i>
-    <i r="1">
-      <x v="180"/>
-      <x v="19"/>
-      <x v="145"/>
-    </i>
-    <i r="1">
-      <x v="182"/>
-      <x v="18"/>
-      <x v="148"/>
-    </i>
-    <i r="1">
-      <x v="183"/>
-      <x v="18"/>
-      <x v="149"/>
-    </i>
-    <i r="1">
-      <x v="184"/>
-      <x v="18"/>
-      <x v="151"/>
-    </i>
-    <i r="1">
-      <x v="185"/>
-      <x v="18"/>
-      <x v="150"/>
-    </i>
-    <i r="1">
-      <x v="186"/>
-      <x v="19"/>
-      <x v="123"/>
-    </i>
-    <i r="1">
-      <x v="187"/>
-      <x v="18"/>
-      <x v="154"/>
-    </i>
-    <i r="1">
-      <x v="188"/>
-      <x v="18"/>
-      <x v="152"/>
-    </i>
-    <i r="1">
-      <x v="189"/>
-      <x v="18"/>
-      <x v="153"/>
-    </i>
-    <i r="1">
-      <x v="190"/>
-      <x v="18"/>
-      <x v="155"/>
-    </i>
-    <i r="1">
-      <x v="191"/>
-      <x v="18"/>
-      <x v="156"/>
-    </i>
-    <i r="1">
-      <x v="192"/>
-      <x v="18"/>
-      <x v="157"/>
-    </i>
-    <i r="1">
-      <x v="193"/>
-      <x v="18"/>
-      <x v="158"/>
-    </i>
-    <i r="1">
-      <x v="194"/>
-      <x v="18"/>
-      <x v="159"/>
-    </i>
-    <i r="1">
-      <x v="195"/>
-      <x v="18"/>
-      <x v="160"/>
-    </i>
-    <i r="1">
-      <x v="196"/>
-      <x v="18"/>
-      <x v="161"/>
-    </i>
-    <i r="1">
-      <x v="197"/>
-      <x v="18"/>
-      <x v="162"/>
-    </i>
-    <i r="1">
-      <x v="198"/>
-      <x v="18"/>
-      <x v="163"/>
-    </i>
-    <i r="1">
-      <x v="199"/>
-      <x v="18"/>
-      <x v="164"/>
-    </i>
-    <i r="1">
-      <x v="200"/>
-      <x v="18"/>
-      <x v="166"/>
-    </i>
-    <i r="1">
-      <x v="201"/>
-      <x v="18"/>
-      <x v="165"/>
-    </i>
-    <i r="1">
-      <x v="202"/>
-      <x v="18"/>
-      <x v="167"/>
-    </i>
-    <i r="1">
-      <x v="203"/>
-      <x v="18"/>
-      <x v="168"/>
-    </i>
-    <i r="1">
-      <x v="204"/>
-      <x v="2"/>
-      <x v="110"/>
-    </i>
-    <i r="1">
-      <x v="205"/>
-      <x v="19"/>
-      <x v="170"/>
-    </i>
-    <i r="1">
-      <x v="206"/>
-      <x v="19"/>
-      <x v="123"/>
-    </i>
-    <i r="1">
-      <x v="207"/>
-      <x v="18"/>
-      <x v="178"/>
-    </i>
-    <i r="1">
-      <x v="208"/>
-      <x v="18"/>
-      <x v="115"/>
-    </i>
-    <i r="1">
-      <x v="209"/>
-      <x v="18"/>
-      <x v="116"/>
-    </i>
-    <i r="1">
-      <x v="210"/>
-      <x v="18"/>
-      <x v="117"/>
-    </i>
-    <i r="1">
-      <x v="211"/>
-      <x v="18"/>
-      <x v="118"/>
-    </i>
-    <i r="1">
-      <x v="212"/>
-      <x v="18"/>
-      <x v="119"/>
-    </i>
-    <i r="1">
-      <x v="213"/>
-      <x v="18"/>
-      <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="214"/>
-      <x v="19"/>
-      <x v="136"/>
-    </i>
-    <i r="1">
-      <x v="215"/>
-      <x v="19"/>
-      <x v="174"/>
-    </i>
-    <i r="1">
-      <x v="216"/>
-      <x v="18"/>
-      <x v="175"/>
-    </i>
-    <i r="1">
-      <x v="217"/>
-      <x v="18"/>
-      <x v="172"/>
-    </i>
-    <i r="1">
-      <x v="218"/>
-      <x v="19"/>
-      <x v="176"/>
-    </i>
-    <i r="1">
-      <x v="223"/>
-      <x v="18"/>
-      <x v="177"/>
-    </i>
-    <i r="1">
-      <x v="224"/>
-      <x v="18"/>
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="272"/>
-      <x v="18"/>
-      <x v="181"/>
-    </i>
-    <i r="1">
-      <x v="273"/>
-      <x v="18"/>
-      <x v="180"/>
-    </i>
-    <i r="1">
-      <x v="274"/>
-      <x v="18"/>
-      <x v="57"/>
-    </i>
-    <i r="1">
-      <x v="275"/>
-      <x v="18"/>
-      <x v="137"/>
-    </i>
-    <i r="1">
-      <x v="276"/>
-      <x v="18"/>
-      <x v="186"/>
-    </i>
-    <i r="1">
-      <x v="277"/>
-      <x v="18"/>
-      <x v="187"/>
-    </i>
-    <i r="1">
-      <x v="278"/>
-      <x v="15"/>
-      <x v="207"/>
-    </i>
-    <i r="1">
-      <x v="279"/>
-      <x v="15"/>
-      <x v="208"/>
+      <x v="349"/>
+      <x v="12"/>
+      <x v="281"/>
     </i>
     <i r="1">
       <x v="350"/>
       <x v="3"/>
-      <x v="283"/>
-    </i>
-    <i r="1">
-      <x v="351"/>
-      <x v="18"/>
-      <x v="370"/>
-    </i>
-    <i r="1">
-      <x v="352"/>
-      <x v="18"/>
-      <x v="371"/>
-    </i>
-    <i r="1">
-      <x v="353"/>
-      <x v="18"/>
-      <x v="372"/>
-    </i>
-    <i r="1">
-      <x v="354"/>
-      <x v="18"/>
-      <x v="373"/>
-    </i>
-    <i r="1">
-      <x v="355"/>
-      <x v="18"/>
-      <x v="384"/>
+      <x v="282"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -18025,7 +17239,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0F64B69-A8EF-4536-8E7C-2E426D3B6C78}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" enableDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Source Data">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0F64B69-A8EF-4536-8E7C-2E426D3B6C78}" name="PivotTable2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" enableDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Source Data">
   <location ref="A4:D137" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -18908,8 +18122,8 @@
   <data>
     <tabular pivotCacheId="5">
       <items count="5">
-        <i x="0"/>
-        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1"/>
         <i x="3"/>
         <i x="4"/>
         <i x="2"/>
@@ -19354,7 +18568,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19363,27 +18577,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>906</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
@@ -19470,7 +18684,8 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19482,18 +18697,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>790</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -19896,7 +19111,7 @@
         <v>44917</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -19904,13 +19119,13 @@
         <v>837</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C33" s="37">
         <v>44642</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -19918,13 +19133,13 @@
         <v>850</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C34" s="37">
         <v>45044</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -19932,13 +19147,13 @@
         <v>837</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C35" s="37">
         <v>45056</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -20632,6 +19847,7 @@
       <c r="D150" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:D4" xr:uid="{00000000-0001-0000-0900-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -20667,18 +19883,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>792</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
@@ -20692,7 +19908,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="75" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="42" t="s">
@@ -20703,7 +19919,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="42" t="s">
         <v>410</v>
       </c>
@@ -20712,7 +19928,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="42" t="s">
         <v>415</v>
       </c>
@@ -20721,7 +19937,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="42" t="s">
         <v>414</v>
       </c>
@@ -20730,7 +19946,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -20741,7 +19957,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="42" t="s">
         <v>410</v>
       </c>
@@ -20750,7 +19966,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="42" t="s">
         <v>415</v>
       </c>
@@ -20768,7 +19984,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -20779,7 +19995,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="42" t="s">
         <v>410</v>
       </c>
@@ -20788,7 +20004,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="42" t="s">
         <v>415</v>
       </c>
@@ -20806,7 +20022,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="72" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -20817,7 +20033,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="42" t="s">
         <v>410</v>
       </c>
@@ -20826,7 +20042,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="42" t="s">
         <v>415</v>
       </c>
@@ -20844,7 +20060,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="72" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -20855,7 +20071,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="251.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="42" t="s">
         <v>410</v>
       </c>
@@ -20864,7 +20080,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="42" t="s">
         <v>415</v>
       </c>
@@ -20882,7 +20098,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="72" t="s">
         <v>131</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -20893,7 +20109,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="246" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="42" t="s">
         <v>410</v>
       </c>
@@ -20902,7 +20118,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="42" t="s">
         <v>415</v>
       </c>
@@ -20920,7 +20136,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="72" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -20931,7 +20147,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="42" t="s">
         <v>410</v>
       </c>
@@ -20940,7 +20156,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="72"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="42" t="s">
         <v>415</v>
       </c>
@@ -20958,7 +20174,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="75">
+      <c r="A34" s="70">
         <v>111</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -20969,7 +20185,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A35" s="64"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="42" t="s">
         <v>410</v>
       </c>
@@ -20978,7 +20194,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="64"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="42" t="s">
         <v>415</v>
       </c>
@@ -20987,7 +20203,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="76"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="44" t="s">
         <v>414</v>
       </c>
@@ -21031,27 +20247,27 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="70" t="s">
         <v>1126</v>
       </c>
       <c r="B42" s="43" t="s">
         <v>956</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" s="64"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="42" t="s">
         <v>410</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="64"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="42" t="s">
         <v>415</v>
       </c>
@@ -21060,7 +20276,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="76"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="44" t="s">
         <v>414</v>
       </c>
@@ -21070,17 +20286,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:C6 B7:C13">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
@@ -21353,9 +20569,9 @@
   <sheetPr codeName="Sheet11" filterMode="1"/>
   <dimension ref="A1:J622"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21371,18 +20587,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>794</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
@@ -21804,7 +21020,7 @@
         <v>1194</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>1091</v>
@@ -21927,7 +21143,7 @@
       <c r="I22" s="35"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>19</v>
       </c>
@@ -21949,7 +21165,7 @@
       <c r="I23" s="35"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
         <v>20</v>
       </c>
@@ -21966,7 +21182,7 @@
         <v>1190</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>898</v>
@@ -22018,10 +21234,10 @@
         <v>97</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35" t="s">
@@ -22033,7 +21249,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
         <v>22</v>
       </c>
@@ -22044,10 +21260,10 @@
         <v>97</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>1258</v>
+        <v>1318</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35" t="s">
@@ -22059,7 +21275,7 @@
       <c r="I27" s="35"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
         <v>23</v>
       </c>
@@ -22070,13 +21286,13 @@
         <v>111</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>898</v>
@@ -22100,10 +21316,10 @@
         <v>97</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35" t="s">
@@ -22115,51 +21331,107 @@
       <c r="I29" s="35"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="35"/>
+    <row r="30" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="35">
+        <v>25</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>1255</v>
+      </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H30" s="37">
+        <v>45040</v>
+      </c>
       <c r="I30" s="35"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>26</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>1316</v>
+      </c>
       <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H31" s="37">
+        <v>45070</v>
+      </c>
       <c r="I31" s="35"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+    <row r="32" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="35">
+        <v>27</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>1316</v>
+      </c>
       <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="G32" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H32" s="37">
+        <v>45070</v>
+      </c>
       <c r="I32" s="35"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+    <row r="33" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="35">
+        <v>28</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>1316</v>
+      </c>
       <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="G33" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H33" s="37">
+        <v>45070</v>
+      </c>
       <c r="I33" s="35"/>
       <c r="J33" s="3"/>
     </row>
@@ -29232,9 +28504,9 @@
       <c r="J622" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:I28" xr:uid="{00000000-0009-0000-0000-00000A000000}">
+  <autoFilter ref="A4:I29" xr:uid="{00000000-0009-0000-0000-00000A000000}">
     <filterColumn colId="6">
-      <filters blank="1">
+      <filters>
         <filter val="Open"/>
       </filters>
     </filterColumn>
@@ -29284,10 +28556,10 @@
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -29303,10 +28575,10 @@
     </row>
     <row r="7" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>954</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -29320,16 +28592,16 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>847</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="63"/>
     </row>
     <row r="10" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>853</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -29348,10 +28620,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>812</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="63"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -29382,10 +28654,10 @@
     </row>
     <row r="22" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="63"/>
     </row>
     <row r="24" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -29407,10 +28679,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="63" t="s">
         <v>821</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="63"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -29427,16 +28699,16 @@
       <c r="A33" s="32"/>
     </row>
     <row r="34" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="63" t="s">
         <v>969</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="63"/>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>968</v>
       </c>
-      <c r="B35" s="67"/>
+      <c r="B35" s="66"/>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -29458,16 +28730,16 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="63" t="s">
         <v>955</v>
       </c>
-      <c r="B41" s="64"/>
+      <c r="B41" s="63"/>
     </row>
     <row r="42" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="66" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B42" s="66"/>
+      <c r="A42" s="65" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B42" s="65"/>
     </row>
     <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="33" t="s">
@@ -29481,10 +28753,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="64" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B47" s="64"/>
+      <c r="A47" s="63" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B47" s="63"/>
     </row>
     <row r="48" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
@@ -29497,26 +28769,26 @@
     </row>
     <row r="50" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="63" t="s">
         <v>1160</v>
       </c>
-      <c r="B51" s="64"/>
+      <c r="B51" s="63"/>
     </row>
     <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="64" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B56" s="64"/>
+      <c r="A56" s="63" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B56" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -29566,10 +28838,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -29620,7 +28892,7 @@
       <c r="E7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -29640,7 +28912,7 @@
       <c r="E8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -29660,7 +28932,7 @@
       <c r="E9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -29812,7 +29084,7 @@
       <c r="E17" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -29856,16 +29128,16 @@
       <c r="A25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>798</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
@@ -29887,7 +29159,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -29947,7 +29219,7 @@
         <v>800</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -29977,7 +29249,7 @@
         <v>123</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -30067,7 +29339,7 @@
         <v>133</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -30112,7 +29384,7 @@
         <v>805</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -30157,7 +29429,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -30269,7 +29541,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -30286,21 +29558,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>796</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -30318,2746 +29590,324 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>884</v>
-      </c>
-      <c r="D5" t="s">
-        <v>605</v>
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>884</v>
-      </c>
-      <c r="D6" t="s">
-        <v>626</v>
+        <v>403</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="C7" t="s">
-        <v>884</v>
-      </c>
-      <c r="D7" t="s">
-        <v>562</v>
+        <v>411</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>782</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>447</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>781</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>910</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>781</v>
+        <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>884</v>
-      </c>
-      <c r="D11" t="s">
-        <v>673</v>
+        <v>400</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>884</v>
-      </c>
-      <c r="D12" t="s">
-        <v>538</v>
+        <v>417</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>884</v>
-      </c>
-      <c r="D13" t="s">
-        <v>536</v>
+        <v>398</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D14" t="s">
-        <v>614</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>884</v>
-      </c>
-      <c r="D15" t="s">
-        <v>564</v>
+        <v>336</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D16" t="s">
-        <v>666</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D17" t="s">
-        <v>644</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D18" t="s">
-        <v>638</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>886</v>
       </c>
       <c r="D19" t="s">
-        <v>453</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>405</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>570</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>573</v>
+        <v>886</v>
+      </c>
+      <c r="D21" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>884</v>
+        <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D23" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D24" t="s">
-        <v>547</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>892</v>
       </c>
       <c r="C25" t="s">
-        <v>884</v>
+        <v>336</v>
       </c>
       <c r="D25" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>893</v>
       </c>
       <c r="C26" t="s">
-        <v>884</v>
+        <v>336</v>
       </c>
       <c r="D26" t="s">
-        <v>546</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>880</v>
       </c>
       <c r="C27" t="s">
-        <v>884</v>
+        <v>405</v>
       </c>
       <c r="D27" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>425</v>
-      </c>
-      <c r="B28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" t="s">
-        <v>884</v>
-      </c>
-      <c r="D28" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>425</v>
-      </c>
-      <c r="B29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" t="s">
-        <v>884</v>
-      </c>
-      <c r="D29" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>425</v>
-      </c>
-      <c r="B30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" t="s">
-        <v>884</v>
-      </c>
-      <c r="D30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" t="s">
-        <v>884</v>
-      </c>
-      <c r="D31" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>425</v>
-      </c>
-      <c r="B32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" t="s">
-        <v>884</v>
-      </c>
-      <c r="D32" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>425</v>
-      </c>
-      <c r="B33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" t="s">
-        <v>884</v>
-      </c>
-      <c r="D33" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>425</v>
-      </c>
-      <c r="B34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" t="s">
-        <v>884</v>
-      </c>
-      <c r="D34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>425</v>
-      </c>
-      <c r="B35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C35" t="s">
-        <v>884</v>
-      </c>
-      <c r="D35" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>425</v>
-      </c>
-      <c r="B36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" t="s">
-        <v>884</v>
-      </c>
-      <c r="D36" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>425</v>
-      </c>
-      <c r="B37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" t="s">
-        <v>884</v>
-      </c>
-      <c r="D37" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>425</v>
-      </c>
-      <c r="B38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" t="s">
-        <v>884</v>
-      </c>
-      <c r="D38" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>425</v>
-      </c>
-      <c r="B39" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" t="s">
-        <v>884</v>
-      </c>
-      <c r="D39" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>425</v>
-      </c>
-      <c r="B40" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" t="s">
-        <v>884</v>
-      </c>
-      <c r="D40" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>425</v>
-      </c>
-      <c r="B41" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" t="s">
-        <v>884</v>
-      </c>
-      <c r="D41" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>425</v>
-      </c>
-      <c r="B42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C42" t="s">
-        <v>884</v>
-      </c>
-      <c r="D42" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>425</v>
-      </c>
-      <c r="B43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" t="s">
-        <v>884</v>
-      </c>
-      <c r="D43" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>425</v>
-      </c>
-      <c r="B44" t="s">
-        <v>420</v>
-      </c>
-      <c r="C44" t="s">
-        <v>886</v>
-      </c>
-      <c r="D44" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>425</v>
-      </c>
-      <c r="B45" t="s">
-        <v>421</v>
-      </c>
-      <c r="C45" t="s">
-        <v>886</v>
-      </c>
-      <c r="D45" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>425</v>
-      </c>
-      <c r="B46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" t="s">
-        <v>884</v>
-      </c>
-      <c r="D46" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>425</v>
-      </c>
-      <c r="B47" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" t="s">
-        <v>884</v>
-      </c>
-      <c r="D47" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>425</v>
-      </c>
-      <c r="B48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" t="s">
-        <v>884</v>
-      </c>
-      <c r="D48" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>425</v>
-      </c>
-      <c r="B49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" t="s">
-        <v>884</v>
-      </c>
-      <c r="D49" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>425</v>
-      </c>
-      <c r="B50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" t="s">
-        <v>884</v>
-      </c>
-      <c r="D50" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>425</v>
-      </c>
-      <c r="B51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" t="s">
-        <v>884</v>
-      </c>
-      <c r="D51" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>425</v>
-      </c>
-      <c r="B52" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" t="s">
-        <v>884</v>
-      </c>
-      <c r="D52" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>425</v>
-      </c>
-      <c r="B53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" t="s">
-        <v>884</v>
-      </c>
-      <c r="D53" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>425</v>
-      </c>
-      <c r="B54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C54" t="s">
-        <v>884</v>
-      </c>
-      <c r="D54" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>425</v>
-      </c>
-      <c r="B55" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" t="s">
-        <v>884</v>
-      </c>
-      <c r="D55" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>425</v>
-      </c>
-      <c r="B56" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" t="s">
-        <v>884</v>
-      </c>
-      <c r="D56" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>425</v>
-      </c>
-      <c r="B57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C57" t="s">
-        <v>884</v>
-      </c>
-      <c r="D57" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>425</v>
-      </c>
-      <c r="B58" t="s">
-        <v>310</v>
-      </c>
-      <c r="C58" t="s">
-        <v>884</v>
-      </c>
-      <c r="D58" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>425</v>
-      </c>
-      <c r="B59" t="s">
-        <v>311</v>
-      </c>
-      <c r="C59" t="s">
-        <v>884</v>
-      </c>
-      <c r="D59" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>425</v>
-      </c>
-      <c r="B60" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" t="s">
-        <v>884</v>
-      </c>
-      <c r="D60" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>425</v>
-      </c>
-      <c r="B61" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" t="s">
-        <v>884</v>
-      </c>
-      <c r="D61" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>425</v>
-      </c>
-      <c r="B62" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" t="s">
-        <v>884</v>
-      </c>
-      <c r="D62" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>425</v>
-      </c>
-      <c r="B63" t="s">
-        <v>281</v>
-      </c>
-      <c r="C63" t="s">
-        <v>884</v>
-      </c>
-      <c r="D63" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>425</v>
-      </c>
-      <c r="B64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" t="s">
-        <v>884</v>
-      </c>
-      <c r="D64" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>425</v>
-      </c>
-      <c r="B65" t="s">
-        <v>279</v>
-      </c>
-      <c r="C65" t="s">
-        <v>884</v>
-      </c>
-      <c r="D65" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" t="s">
-        <v>283</v>
-      </c>
-      <c r="C66" t="s">
-        <v>884</v>
-      </c>
-      <c r="D66" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>425</v>
-      </c>
-      <c r="B67" t="s">
-        <v>286</v>
-      </c>
-      <c r="C67" t="s">
-        <v>884</v>
-      </c>
-      <c r="D67" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>425</v>
-      </c>
-      <c r="B68" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" t="s">
-        <v>884</v>
-      </c>
-      <c r="D68" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>425</v>
-      </c>
-      <c r="B69" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" t="s">
-        <v>884</v>
-      </c>
-      <c r="D69" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>425</v>
-      </c>
-      <c r="B70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70" t="s">
-        <v>884</v>
-      </c>
-      <c r="D70" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>425</v>
-      </c>
-      <c r="B71" t="s">
-        <v>254</v>
-      </c>
-      <c r="C71" t="s">
-        <v>884</v>
-      </c>
-      <c r="D71" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>425</v>
-      </c>
-      <c r="B72" t="s">
-        <v>287</v>
-      </c>
-      <c r="C72" t="s">
-        <v>884</v>
-      </c>
-      <c r="D72" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>425</v>
-      </c>
-      <c r="B73" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" t="s">
-        <v>884</v>
-      </c>
-      <c r="D73" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>425</v>
-      </c>
-      <c r="B74" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" t="s">
-        <v>884</v>
-      </c>
-      <c r="D74" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>425</v>
-      </c>
-      <c r="B75" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" t="s">
-        <v>884</v>
-      </c>
-      <c r="D75" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>425</v>
-      </c>
-      <c r="B76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" t="s">
-        <v>411</v>
-      </c>
-      <c r="D76" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>425</v>
-      </c>
-      <c r="B77" t="s">
-        <v>199</v>
-      </c>
-      <c r="C77" t="s">
-        <v>411</v>
-      </c>
-      <c r="D77" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>425</v>
-      </c>
-      <c r="B78" t="s">
-        <v>256</v>
-      </c>
-      <c r="C78" t="s">
-        <v>884</v>
-      </c>
-      <c r="D78" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>425</v>
-      </c>
-      <c r="B79" t="s">
-        <v>266</v>
-      </c>
-      <c r="C79" t="s">
-        <v>884</v>
-      </c>
-      <c r="D79" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>425</v>
-      </c>
-      <c r="B80" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" t="s">
-        <v>884</v>
-      </c>
-      <c r="D80" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>425</v>
-      </c>
-      <c r="B81" t="s">
-        <v>418</v>
-      </c>
-      <c r="C81" t="s">
-        <v>884</v>
-      </c>
-      <c r="D81" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>425</v>
-      </c>
-      <c r="B82" t="s">
-        <v>300</v>
-      </c>
-      <c r="C82" t="s">
-        <v>884</v>
-      </c>
-      <c r="D82" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>425</v>
-      </c>
-      <c r="B83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" t="s">
-        <v>886</v>
-      </c>
-      <c r="D83" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>425</v>
-      </c>
-      <c r="B84" t="s">
-        <v>296</v>
-      </c>
-      <c r="C84" t="s">
-        <v>884</v>
-      </c>
-      <c r="D84" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>425</v>
-      </c>
-      <c r="B85" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" t="s">
-        <v>411</v>
-      </c>
-      <c r="D85" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>425</v>
-      </c>
-      <c r="B86" t="s">
-        <v>293</v>
-      </c>
-      <c r="C86" t="s">
-        <v>884</v>
-      </c>
-      <c r="D86" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>425</v>
-      </c>
-      <c r="B87" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" t="s">
-        <v>886</v>
-      </c>
-      <c r="D87" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>425</v>
-      </c>
-      <c r="B88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" t="s">
-        <v>884</v>
-      </c>
-      <c r="D88" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>425</v>
-      </c>
-      <c r="B89" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" t="s">
-        <v>886</v>
-      </c>
-      <c r="D89" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>425</v>
-      </c>
-      <c r="B90" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" t="s">
-        <v>884</v>
-      </c>
-      <c r="D90" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>425</v>
-      </c>
-      <c r="B91" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" t="s">
-        <v>884</v>
-      </c>
-      <c r="D91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>425</v>
-      </c>
-      <c r="B92" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" t="s">
-        <v>884</v>
-      </c>
-      <c r="D92" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>425</v>
-      </c>
-      <c r="B93" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" t="s">
-        <v>884</v>
-      </c>
-      <c r="D93" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>425</v>
-      </c>
-      <c r="B94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" t="s">
-        <v>884</v>
-      </c>
-      <c r="D94" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>425</v>
-      </c>
-      <c r="B95" t="s">
-        <v>243</v>
-      </c>
-      <c r="C95" t="s">
-        <v>884</v>
-      </c>
-      <c r="D95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>425</v>
-      </c>
-      <c r="B96" t="s">
-        <v>276</v>
-      </c>
-      <c r="C96" t="s">
-        <v>884</v>
-      </c>
-      <c r="D96" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>425</v>
-      </c>
-      <c r="B97" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" t="s">
-        <v>884</v>
-      </c>
-      <c r="D97" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>425</v>
-      </c>
-      <c r="B98" t="s">
-        <v>191</v>
-      </c>
-      <c r="C98" t="s">
-        <v>884</v>
-      </c>
-      <c r="D98" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>425</v>
-      </c>
-      <c r="B99" t="s">
-        <v>244</v>
-      </c>
-      <c r="C99" t="s">
-        <v>884</v>
-      </c>
-      <c r="D99" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>425</v>
-      </c>
-      <c r="B100" t="s">
-        <v>259</v>
-      </c>
-      <c r="C100" t="s">
-        <v>884</v>
-      </c>
-      <c r="D100" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>425</v>
-      </c>
-      <c r="B101" t="s">
-        <v>260</v>
-      </c>
-      <c r="C101" t="s">
-        <v>884</v>
-      </c>
-      <c r="D101" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>425</v>
-      </c>
-      <c r="B102" t="s">
-        <v>242</v>
-      </c>
-      <c r="C102" t="s">
-        <v>884</v>
-      </c>
-      <c r="D102" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>425</v>
-      </c>
-      <c r="B103" t="s">
-        <v>238</v>
-      </c>
-      <c r="C103" t="s">
-        <v>884</v>
-      </c>
-      <c r="D103" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>425</v>
-      </c>
-      <c r="B104" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" t="s">
-        <v>884</v>
-      </c>
-      <c r="D104" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>425</v>
-      </c>
-      <c r="B105" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" t="s">
-        <v>886</v>
-      </c>
-      <c r="D105" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>425</v>
-      </c>
-      <c r="B106" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" t="s">
-        <v>884</v>
-      </c>
-      <c r="D106" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>425</v>
-      </c>
-      <c r="B107" t="s">
-        <v>189</v>
-      </c>
-      <c r="C107" t="s">
-        <v>884</v>
-      </c>
-      <c r="D107" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>425</v>
-      </c>
-      <c r="B108" t="s">
-        <v>299</v>
-      </c>
-      <c r="C108" t="s">
-        <v>884</v>
-      </c>
-      <c r="D108" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>425</v>
-      </c>
-      <c r="B109" t="s">
-        <v>301</v>
-      </c>
-      <c r="C109" t="s">
-        <v>884</v>
-      </c>
-      <c r="D109" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>425</v>
-      </c>
-      <c r="B110" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" t="s">
-        <v>884</v>
-      </c>
-      <c r="D110" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>425</v>
-      </c>
-      <c r="B111" t="s">
-        <v>261</v>
-      </c>
-      <c r="C111" t="s">
-        <v>884</v>
-      </c>
-      <c r="D111" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>425</v>
-      </c>
-      <c r="B112" t="s">
-        <v>262</v>
-      </c>
-      <c r="C112" t="s">
-        <v>884</v>
-      </c>
-      <c r="D112" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>425</v>
-      </c>
-      <c r="B113" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" t="s">
-        <v>884</v>
-      </c>
-      <c r="D113" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>425</v>
-      </c>
-      <c r="B114" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" t="s">
-        <v>886</v>
-      </c>
-      <c r="D114" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>425</v>
-      </c>
-      <c r="B115" t="s">
-        <v>312</v>
-      </c>
-      <c r="C115" t="s">
-        <v>884</v>
-      </c>
-      <c r="D115" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>425</v>
-      </c>
-      <c r="B116" t="s">
-        <v>306</v>
-      </c>
-      <c r="C116" t="s">
-        <v>884</v>
-      </c>
-      <c r="D116" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>425</v>
-      </c>
-      <c r="B117" t="s">
-        <v>164</v>
-      </c>
-      <c r="C117" t="s">
-        <v>886</v>
-      </c>
-      <c r="D117" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>425</v>
-      </c>
-      <c r="B118" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" t="s">
-        <v>884</v>
-      </c>
-      <c r="D118" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>425</v>
-      </c>
-      <c r="B119" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" t="s">
-        <v>884</v>
-      </c>
-      <c r="D119" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>425</v>
-      </c>
-      <c r="B120" t="s">
-        <v>271</v>
-      </c>
-      <c r="C120" t="s">
-        <v>884</v>
-      </c>
-      <c r="D120" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>425</v>
-      </c>
-      <c r="B121" t="s">
-        <v>172</v>
-      </c>
-      <c r="C121" t="s">
-        <v>884</v>
-      </c>
-      <c r="D121" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>425</v>
-      </c>
-      <c r="B122" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" t="s">
-        <v>884</v>
-      </c>
-      <c r="D122" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>425</v>
-      </c>
-      <c r="B123" t="s">
-        <v>303</v>
-      </c>
-      <c r="C123" t="s">
-        <v>884</v>
-      </c>
-      <c r="D123" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>425</v>
-      </c>
-      <c r="B124" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" t="s">
-        <v>411</v>
-      </c>
-      <c r="D124" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>425</v>
-      </c>
-      <c r="B125" t="s">
-        <v>304</v>
-      </c>
-      <c r="C125" t="s">
-        <v>884</v>
-      </c>
-      <c r="D125" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>425</v>
-      </c>
-      <c r="B126" t="s">
-        <v>297</v>
-      </c>
-      <c r="C126" t="s">
-        <v>884</v>
-      </c>
-      <c r="D126" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>425</v>
-      </c>
-      <c r="B127" t="s">
-        <v>294</v>
-      </c>
-      <c r="C127" t="s">
-        <v>884</v>
-      </c>
-      <c r="D127" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>425</v>
-      </c>
-      <c r="B128" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" t="s">
-        <v>884</v>
-      </c>
-      <c r="D128" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>425</v>
-      </c>
-      <c r="B129" t="s">
-        <v>178</v>
-      </c>
-      <c r="C129" t="s">
-        <v>411</v>
-      </c>
-      <c r="D129" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>425</v>
-      </c>
-      <c r="B130" t="s">
-        <v>192</v>
-      </c>
-      <c r="C130" t="s">
-        <v>884</v>
-      </c>
-      <c r="D130" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>425</v>
-      </c>
-      <c r="B131" t="s">
-        <v>151</v>
-      </c>
-      <c r="C131" t="s">
-        <v>398</v>
-      </c>
-      <c r="D131" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>425</v>
-      </c>
-      <c r="B132" t="s">
-        <v>274</v>
-      </c>
-      <c r="C132" t="s">
-        <v>884</v>
-      </c>
-      <c r="D132" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>425</v>
-      </c>
-      <c r="B133" t="s">
-        <v>277</v>
-      </c>
-      <c r="C133" t="s">
-        <v>884</v>
-      </c>
-      <c r="D133" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>425</v>
-      </c>
-      <c r="B134" t="s">
-        <v>193</v>
-      </c>
-      <c r="C134" t="s">
-        <v>884</v>
-      </c>
-      <c r="D134" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>425</v>
-      </c>
-      <c r="B135" t="s">
-        <v>204</v>
-      </c>
-      <c r="C135" t="s">
-        <v>884</v>
-      </c>
-      <c r="D135" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>425</v>
-      </c>
-      <c r="B136" t="s">
-        <v>209</v>
-      </c>
-      <c r="C136" t="s">
-        <v>884</v>
-      </c>
-      <c r="D136" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>425</v>
-      </c>
-      <c r="B137" t="s">
-        <v>305</v>
-      </c>
-      <c r="C137" t="s">
-        <v>884</v>
-      </c>
-      <c r="D137" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>425</v>
-      </c>
-      <c r="B138" t="s">
-        <v>268</v>
-      </c>
-      <c r="C138" t="s">
-        <v>884</v>
-      </c>
-      <c r="D138" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>425</v>
-      </c>
-      <c r="B139" t="s">
-        <v>184</v>
-      </c>
-      <c r="C139" t="s">
-        <v>884</v>
-      </c>
-      <c r="D139" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>425</v>
-      </c>
-      <c r="B140" t="s">
-        <v>269</v>
-      </c>
-      <c r="C140" t="s">
-        <v>884</v>
-      </c>
-      <c r="D140" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>425</v>
-      </c>
-      <c r="B141" t="s">
-        <v>181</v>
-      </c>
-      <c r="C141" t="s">
-        <v>782</v>
-      </c>
-      <c r="D141" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>425</v>
-      </c>
-      <c r="B142" t="s">
-        <v>180</v>
-      </c>
-      <c r="C142" t="s">
-        <v>782</v>
-      </c>
-      <c r="D142" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>425</v>
-      </c>
-      <c r="B143" t="s">
-        <v>154</v>
-      </c>
-      <c r="C143" t="s">
-        <v>886</v>
-      </c>
-      <c r="D143" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>425</v>
-      </c>
-      <c r="B144" t="s">
-        <v>251</v>
-      </c>
-      <c r="C144" t="s">
-        <v>884</v>
-      </c>
-      <c r="D144" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>425</v>
-      </c>
-      <c r="B145" t="s">
-        <v>187</v>
-      </c>
-      <c r="C145" t="s">
-        <v>886</v>
-      </c>
-      <c r="D145" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>425</v>
-      </c>
-      <c r="B146" t="s">
-        <v>167</v>
-      </c>
-      <c r="C146" t="s">
-        <v>884</v>
-      </c>
-      <c r="D146" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>425</v>
-      </c>
-      <c r="B147" t="s">
-        <v>163</v>
-      </c>
-      <c r="C147" t="s">
-        <v>886</v>
-      </c>
-      <c r="D147" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>425</v>
-      </c>
-      <c r="B148" t="s">
-        <v>250</v>
-      </c>
-      <c r="C148" t="s">
-        <v>884</v>
-      </c>
-      <c r="D148" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>425</v>
-      </c>
-      <c r="B149" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" t="s">
-        <v>884</v>
-      </c>
-      <c r="D149" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>425</v>
-      </c>
-      <c r="B150" t="s">
-        <v>316</v>
-      </c>
-      <c r="C150" t="s">
-        <v>884</v>
-      </c>
-      <c r="D150" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>425</v>
-      </c>
-      <c r="B151" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" t="s">
-        <v>884</v>
-      </c>
-      <c r="D151" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>425</v>
-      </c>
-      <c r="B152" t="s">
-        <v>422</v>
-      </c>
-      <c r="C152" t="s">
-        <v>886</v>
-      </c>
-      <c r="D152" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>425</v>
-      </c>
-      <c r="B153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C153" t="s">
-        <v>884</v>
-      </c>
-      <c r="D153" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>425</v>
-      </c>
-      <c r="B154" t="s">
-        <v>325</v>
-      </c>
-      <c r="C154" t="s">
-        <v>884</v>
-      </c>
-      <c r="D154" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>425</v>
-      </c>
-      <c r="B155" t="s">
-        <v>323</v>
-      </c>
-      <c r="C155" t="s">
-        <v>884</v>
-      </c>
-      <c r="D155" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>425</v>
-      </c>
-      <c r="B156" t="s">
-        <v>328</v>
-      </c>
-      <c r="C156" t="s">
-        <v>884</v>
-      </c>
-      <c r="D156" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>425</v>
-      </c>
-      <c r="B157" t="s">
-        <v>329</v>
-      </c>
-      <c r="C157" t="s">
-        <v>884</v>
-      </c>
-      <c r="D157" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>425</v>
-      </c>
-      <c r="B158" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" t="s">
-        <v>884</v>
-      </c>
-      <c r="D158" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>425</v>
-      </c>
-      <c r="B159" t="s">
-        <v>330</v>
-      </c>
-      <c r="C159" t="s">
-        <v>884</v>
-      </c>
-      <c r="D159" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>425</v>
-      </c>
-      <c r="B160" t="s">
-        <v>318</v>
-      </c>
-      <c r="C160" t="s">
-        <v>884</v>
-      </c>
-      <c r="D160" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>425</v>
-      </c>
-      <c r="B161" t="s">
-        <v>319</v>
-      </c>
-      <c r="C161" t="s">
-        <v>884</v>
-      </c>
-      <c r="D161" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>425</v>
-      </c>
-      <c r="B162" t="s">
-        <v>331</v>
-      </c>
-      <c r="C162" t="s">
-        <v>884</v>
-      </c>
-      <c r="D162" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>425</v>
-      </c>
-      <c r="B163" t="s">
-        <v>332</v>
-      </c>
-      <c r="C163" t="s">
-        <v>884</v>
-      </c>
-      <c r="D163" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>425</v>
-      </c>
-      <c r="B164" t="s">
-        <v>324</v>
-      </c>
-      <c r="C164" t="s">
-        <v>884</v>
-      </c>
-      <c r="D164" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>425</v>
-      </c>
-      <c r="B165" t="s">
-        <v>333</v>
-      </c>
-      <c r="C165" t="s">
-        <v>884</v>
-      </c>
-      <c r="D165" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>425</v>
-      </c>
-      <c r="B166" t="s">
-        <v>320</v>
-      </c>
-      <c r="C166" t="s">
-        <v>884</v>
-      </c>
-      <c r="D166" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>425</v>
-      </c>
-      <c r="B167" t="s">
-        <v>327</v>
-      </c>
-      <c r="C167" t="s">
-        <v>884</v>
-      </c>
-      <c r="D167" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>425</v>
-      </c>
-      <c r="B168" t="s">
-        <v>334</v>
-      </c>
-      <c r="C168" t="s">
-        <v>884</v>
-      </c>
-      <c r="D168" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>425</v>
-      </c>
-      <c r="B169" t="s">
-        <v>321</v>
-      </c>
-      <c r="C169" t="s">
-        <v>884</v>
-      </c>
-      <c r="D169" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>425</v>
-      </c>
-      <c r="B170" t="s">
-        <v>174</v>
-      </c>
-      <c r="C170" t="s">
-        <v>411</v>
-      </c>
-      <c r="D170" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>425</v>
-      </c>
-      <c r="B171" t="s">
-        <v>162</v>
-      </c>
-      <c r="C171" t="s">
-        <v>886</v>
-      </c>
-      <c r="D171" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>425</v>
-      </c>
-      <c r="B172" t="s">
-        <v>419</v>
-      </c>
-      <c r="C172" t="s">
-        <v>886</v>
-      </c>
-      <c r="D172" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>425</v>
-      </c>
-      <c r="B173" t="s">
-        <v>285</v>
-      </c>
-      <c r="C173" t="s">
-        <v>884</v>
-      </c>
-      <c r="D173" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>425</v>
-      </c>
-      <c r="B174" t="s">
-        <v>198</v>
-      </c>
-      <c r="C174" t="s">
-        <v>884</v>
-      </c>
-      <c r="D174" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>425</v>
-      </c>
-      <c r="B175" t="s">
-        <v>197</v>
-      </c>
-      <c r="C175" t="s">
-        <v>884</v>
-      </c>
-      <c r="D175" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>425</v>
-      </c>
-      <c r="B176" t="s">
-        <v>196</v>
-      </c>
-      <c r="C176" t="s">
-        <v>884</v>
-      </c>
-      <c r="D176" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>425</v>
-      </c>
-      <c r="B177" t="s">
-        <v>195</v>
-      </c>
-      <c r="C177" t="s">
-        <v>884</v>
-      </c>
-      <c r="D177" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>425</v>
-      </c>
-      <c r="B178" t="s">
-        <v>194</v>
-      </c>
-      <c r="C178" t="s">
-        <v>884</v>
-      </c>
-      <c r="D178" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>425</v>
-      </c>
-      <c r="B179" t="s">
-        <v>291</v>
-      </c>
-      <c r="C179" t="s">
-        <v>884</v>
-      </c>
-      <c r="D179" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>425</v>
-      </c>
-      <c r="B180" t="s">
-        <v>156</v>
-      </c>
-      <c r="C180" t="s">
-        <v>886</v>
-      </c>
-      <c r="D180" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>425</v>
-      </c>
-      <c r="B181" t="s">
-        <v>165</v>
-      </c>
-      <c r="C181" t="s">
-        <v>886</v>
-      </c>
-      <c r="D181" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>425</v>
-      </c>
-      <c r="B182" t="s">
-        <v>208</v>
-      </c>
-      <c r="C182" t="s">
-        <v>884</v>
-      </c>
-      <c r="D182" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>425</v>
-      </c>
-      <c r="B183" t="s">
-        <v>288</v>
-      </c>
-      <c r="C183" t="s">
-        <v>884</v>
-      </c>
-      <c r="D183" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>425</v>
-      </c>
-      <c r="B184" t="s">
-        <v>157</v>
-      </c>
-      <c r="C184" t="s">
-        <v>886</v>
-      </c>
-      <c r="D184" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>425</v>
-      </c>
-      <c r="B185" t="s">
-        <v>258</v>
-      </c>
-      <c r="C185" t="s">
-        <v>884</v>
-      </c>
-      <c r="D185" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>425</v>
-      </c>
-      <c r="B186" t="s">
-        <v>241</v>
-      </c>
-      <c r="C186" t="s">
-        <v>884</v>
-      </c>
-      <c r="D186" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>425</v>
-      </c>
-      <c r="B187" t="s">
-        <v>313</v>
-      </c>
-      <c r="C187" t="s">
-        <v>884</v>
-      </c>
-      <c r="D187" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>425</v>
-      </c>
-      <c r="B188" t="s">
-        <v>255</v>
-      </c>
-      <c r="C188" t="s">
-        <v>884</v>
-      </c>
-      <c r="D188" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>425</v>
-      </c>
-      <c r="B189" t="s">
-        <v>267</v>
-      </c>
-      <c r="C189" t="s">
-        <v>884</v>
-      </c>
-      <c r="D189" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>425</v>
-      </c>
-      <c r="B190" t="s">
-        <v>247</v>
-      </c>
-      <c r="C190" t="s">
-        <v>884</v>
-      </c>
-      <c r="D190" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>425</v>
-      </c>
-      <c r="B191" t="s">
-        <v>160</v>
-      </c>
-      <c r="C191" t="s">
-        <v>884</v>
-      </c>
-      <c r="D191" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>425</v>
-      </c>
-      <c r="B192" t="s">
-        <v>183</v>
-      </c>
-      <c r="C192" t="s">
-        <v>884</v>
-      </c>
-      <c r="D192" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>425</v>
-      </c>
-      <c r="B193" t="s">
-        <v>775</v>
-      </c>
-      <c r="C193" t="s">
-        <v>776</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>425</v>
-      </c>
-      <c r="B194" t="s">
-        <v>777</v>
-      </c>
-      <c r="C194" t="s">
-        <v>776</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>425</v>
-      </c>
-      <c r="B195" t="s">
-        <v>880</v>
-      </c>
-      <c r="C195" t="s">
-        <v>405</v>
-      </c>
-      <c r="D195" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>425</v>
-      </c>
-      <c r="B196" t="s">
-        <v>970</v>
-      </c>
-      <c r="C196" t="s">
-        <v>884</v>
-      </c>
-      <c r="D196" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>425</v>
-      </c>
-      <c r="B197" t="s">
-        <v>971</v>
-      </c>
-      <c r="C197" t="s">
-        <v>884</v>
-      </c>
-      <c r="D197" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>425</v>
-      </c>
-      <c r="B198" t="s">
-        <v>972</v>
-      </c>
-      <c r="C198" t="s">
-        <v>884</v>
-      </c>
-      <c r="D198" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>425</v>
-      </c>
-      <c r="B199" t="s">
-        <v>973</v>
-      </c>
-      <c r="C199" t="s">
-        <v>884</v>
-      </c>
-      <c r="D199" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>425</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C200" t="s">
-        <v>884</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1089</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -40482,7 +37332,7 @@
         <v>336</v>
       </c>
       <c r="D290" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -40496,7 +37346,7 @@
         <v>336</v>
       </c>
       <c r="D291" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -40518,13 +37368,13 @@
         <v>426</v>
       </c>
       <c r="B293" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C293" t="s">
         <v>336</v>
       </c>
       <c r="D293" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -40627,21 +37477,21 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B301" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C301" t="s">
         <v>398</v>
       </c>
       <c r="D301" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B302" t="s">
         <v>151</v>
@@ -40655,7 +37505,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B303" t="s">
         <v>154</v>
@@ -40669,86 +37519,86 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B304" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C304" t="s">
         <v>999</v>
       </c>
       <c r="D304" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B305" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C305" t="s">
         <v>411</v>
       </c>
       <c r="D305" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B306" t="s">
         <v>1273</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>1277</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>1281</v>
-      </c>
-      <c r="D306" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B307" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C307" t="s">
         <v>886</v>
       </c>
       <c r="D307" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B308" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C308" t="s">
         <v>411</v>
       </c>
       <c r="D308" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B309" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C309" t="s">
         <v>886</v>
       </c>
       <c r="D309" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
@@ -40778,17 +37628,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>793</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:4" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
@@ -40818,7 +37668,7 @@
       <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -40832,7 +37682,7 @@
       <c r="C6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -40846,7 +37696,7 @@
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -40860,7 +37710,7 @@
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -40874,7 +37724,7 @@
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>90</v>
       </c>
     </row>
@@ -40888,7 +37738,7 @@
       <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="60" t="s">
         <v>91</v>
       </c>
     </row>
@@ -40902,7 +37752,7 @@
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="60" t="s">
         <v>62</v>
       </c>
     </row>
@@ -40916,7 +37766,7 @@
       <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -40930,7 +37780,7 @@
       <c r="C13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -40944,7 +37794,7 @@
       <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -40958,7 +37808,7 @@
       <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -40972,7 +37822,7 @@
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -40986,7 +37836,7 @@
       <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="60" t="s">
         <v>63</v>
       </c>
     </row>
@@ -41000,7 +37850,7 @@
       <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="60" t="s">
         <v>80</v>
       </c>
     </row>
@@ -41014,7 +37864,7 @@
       <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="60" t="s">
         <v>62</v>
       </c>
     </row>
@@ -41028,7 +37878,7 @@
       <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41042,7 +37892,7 @@
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41056,7 +37906,7 @@
       <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41070,7 +37920,7 @@
       <c r="C23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="60" t="s">
         <v>58</v>
       </c>
     </row>
@@ -41084,7 +37934,7 @@
       <c r="C24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="60" t="s">
         <v>81</v>
       </c>
     </row>
@@ -41098,7 +37948,7 @@
       <c r="C25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="60" t="s">
         <v>57</v>
       </c>
     </row>
@@ -41112,7 +37962,7 @@
       <c r="C26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41126,7 +37976,7 @@
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41140,7 +37990,7 @@
       <c r="C28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41154,7 +38004,7 @@
       <c r="C29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41168,7 +38018,7 @@
       <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41182,7 +38032,7 @@
       <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="60" t="s">
         <v>70</v>
       </c>
     </row>
@@ -41196,7 +38046,7 @@
       <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="60" t="s">
         <v>71</v>
       </c>
     </row>
@@ -41210,7 +38060,7 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="60" t="s">
         <v>72</v>
       </c>
     </row>
@@ -41224,7 +38074,7 @@
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41238,7 +38088,7 @@
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41252,7 +38102,7 @@
       <c r="C36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41266,7 +38116,7 @@
       <c r="C37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41280,7 +38130,7 @@
       <c r="C38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="60" t="s">
         <v>82</v>
       </c>
     </row>
@@ -41294,7 +38144,7 @@
       <c r="C39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="60" t="s">
         <v>73</v>
       </c>
     </row>
@@ -41308,7 +38158,7 @@
       <c r="C40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="60" t="s">
         <v>74</v>
       </c>
     </row>
@@ -41322,7 +38172,7 @@
       <c r="C41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="60" t="s">
         <v>76</v>
       </c>
     </row>
@@ -41336,7 +38186,7 @@
       <c r="C42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="60" t="s">
         <v>75</v>
       </c>
     </row>
@@ -41350,7 +38200,7 @@
       <c r="C43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="60" t="s">
         <v>94</v>
       </c>
     </row>
@@ -41364,7 +38214,7 @@
       <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="60" t="s">
         <v>78</v>
       </c>
     </row>
@@ -41378,7 +38228,7 @@
       <c r="C45" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="60" t="s">
         <v>95</v>
       </c>
     </row>
@@ -41392,7 +38242,7 @@
       <c r="C46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="60" t="s">
         <v>79</v>
       </c>
     </row>
@@ -41406,7 +38256,7 @@
       <c r="C47" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="60" t="s">
         <v>77</v>
       </c>
     </row>
@@ -41420,7 +38270,7 @@
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41434,7 +38284,7 @@
       <c r="C49" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41448,7 +38298,7 @@
       <c r="C50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41462,7 +38312,7 @@
       <c r="C51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="61" t="s">
+      <c r="D51" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41476,7 +38326,7 @@
       <c r="C52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="60" t="s">
         <v>65</v>
       </c>
     </row>
@@ -41490,7 +38340,7 @@
       <c r="C53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="61" t="s">
+      <c r="D53" s="60" t="s">
         <v>66</v>
       </c>
     </row>
@@ -41504,7 +38354,7 @@
       <c r="C54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="60" t="s">
         <v>83</v>
       </c>
     </row>
@@ -41518,7 +38368,7 @@
       <c r="C55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="61" t="s">
+      <c r="D55" s="60" t="s">
         <v>64</v>
       </c>
     </row>
@@ -41532,7 +38382,7 @@
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41546,7 +38396,7 @@
       <c r="C57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="60" t="s">
         <v>68</v>
       </c>
     </row>
@@ -41560,7 +38410,7 @@
       <c r="C58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="60" t="s">
         <v>69</v>
       </c>
     </row>
@@ -41574,7 +38424,7 @@
       <c r="C59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="60" t="s">
         <v>67</v>
       </c>
     </row>
@@ -41588,7 +38438,7 @@
       <c r="C60" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41602,7 +38452,7 @@
       <c r="C61" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41616,7 +38466,7 @@
       <c r="C62" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="D62" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41630,7 +38480,7 @@
       <c r="C63" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41644,7 +38494,7 @@
       <c r="C64" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41658,7 +38508,7 @@
       <c r="C65" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41672,7 +38522,7 @@
       <c r="C66" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D66" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41686,7 +38536,7 @@
       <c r="C67" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="61" t="s">
+      <c r="D67" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41700,7 +38550,7 @@
       <c r="C68" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="61" t="s">
+      <c r="D68" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41714,7 +38564,7 @@
       <c r="C69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41728,7 +38578,7 @@
       <c r="C70" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="61" t="s">
+      <c r="D70" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41742,7 +38592,7 @@
       <c r="C71" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="61" t="s">
+      <c r="D71" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41756,7 +38606,7 @@
       <c r="C72" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="61" t="s">
+      <c r="D72" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41770,7 +38620,7 @@
       <c r="C73" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="61" t="s">
+      <c r="D73" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41784,7 +38634,7 @@
       <c r="C74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="61" t="s">
+      <c r="D74" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41798,7 +38648,7 @@
       <c r="C75" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="61" t="s">
+      <c r="D75" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41812,7 +38662,7 @@
       <c r="C76" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="61" t="s">
+      <c r="D76" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41826,7 +38676,7 @@
       <c r="C77" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="61" t="s">
+      <c r="D77" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41840,7 +38690,7 @@
       <c r="C78" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="61" t="s">
+      <c r="D78" s="60" t="s">
         <v>113</v>
       </c>
     </row>
@@ -41854,7 +38704,7 @@
       <c r="C79" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="61" t="s">
+      <c r="D79" s="60" t="s">
         <v>116</v>
       </c>
     </row>
@@ -41868,7 +38718,7 @@
       <c r="C80" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="61" t="s">
+      <c r="D80" s="60" t="s">
         <v>116</v>
       </c>
     </row>
@@ -41882,7 +38732,7 @@
       <c r="C81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="61" t="s">
+      <c r="D81" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41896,7 +38746,7 @@
       <c r="C82" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="61" t="s">
+      <c r="D82" s="60" t="s">
         <v>116</v>
       </c>
     </row>
@@ -41910,7 +38760,7 @@
       <c r="C83" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="61" t="s">
+      <c r="D83" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41924,7 +38774,7 @@
       <c r="C84" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="61" t="s">
+      <c r="D84" s="60" t="s">
         <v>116</v>
       </c>
     </row>
@@ -41938,7 +38788,7 @@
       <c r="C85" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D85" s="61" t="s">
+      <c r="D85" s="60" t="s">
         <v>112</v>
       </c>
     </row>
@@ -41952,7 +38802,7 @@
       <c r="C86" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="61" t="s">
+      <c r="D86" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41966,7 +38816,7 @@
       <c r="C87" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="61" t="s">
+      <c r="D87" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41980,7 +38830,7 @@
       <c r="C88" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="61" t="s">
+      <c r="D88" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -41994,7 +38844,7 @@
       <c r="C89" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="61" t="s">
+      <c r="D89" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -42008,7 +38858,7 @@
       <c r="C90" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="61" t="s">
+      <c r="D90" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -42022,7 +38872,7 @@
       <c r="C91" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="61" t="s">
+      <c r="D91" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -42036,7 +38886,7 @@
       <c r="C92" s="8">
         <v>111</v>
       </c>
-      <c r="D92" s="61" t="s">
+      <c r="D92" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -42050,7 +38900,7 @@
       <c r="C93" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="61" t="s">
+      <c r="D93" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -42064,7 +38914,7 @@
       <c r="C94" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="61" t="s">
+      <c r="D94" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -42078,7 +38928,7 @@
       <c r="C95" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="61" t="s">
+      <c r="D95" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -42092,7 +38942,7 @@
       <c r="C96" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="D96" s="61" t="s">
+      <c r="D96" s="60" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -42106,7 +38956,7 @@
       <c r="C97" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="61" t="s">
+      <c r="D97" s="60" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -42120,7 +38970,7 @@
       <c r="C98" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D98" s="61" t="s">
+      <c r="D98" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -42134,7 +38984,7 @@
       <c r="C99" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D99" s="61" t="s">
+      <c r="D99" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -42148,7 +38998,7 @@
       <c r="C100" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="61" t="s">
+      <c r="D100" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -42162,7 +39012,7 @@
       <c r="C101" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="D101" s="61" t="s">
+      <c r="D101" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -42176,7 +39026,7 @@
       <c r="C102" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="D102" s="61" t="s">
+      <c r="D102" s="60" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -42190,7 +39040,7 @@
       <c r="C103" s="8" t="s">
         <v>1041</v>
       </c>
-      <c r="D103" s="61" t="s">
+      <c r="D103" s="60" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -42204,7 +39054,7 @@
       <c r="C104" s="8" t="s">
         <v>1042</v>
       </c>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="60" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -42218,7 +39068,7 @@
       <c r="C105" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D105" s="61" t="s">
+      <c r="D105" s="60" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -42232,7 +39082,7 @@
       <c r="C106" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="61" t="s">
+      <c r="D106" s="60" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -42246,7 +39096,7 @@
       <c r="C107" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="D107" s="61" t="s">
+      <c r="D107" s="60" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -42260,7 +39110,7 @@
       <c r="C108" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="D108" s="61" t="s">
+      <c r="D108" s="60" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -42274,7 +39124,7 @@
       <c r="C109" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="D109" s="61" t="s">
+      <c r="D109" s="60" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -42288,7 +39138,7 @@
       <c r="C110" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="D110" s="61" t="s">
+      <c r="D110" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42302,7 +39152,7 @@
       <c r="C111" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="D111" s="61" t="s">
+      <c r="D111" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42316,7 +39166,7 @@
       <c r="C112" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="D112" s="61" t="s">
+      <c r="D112" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42330,7 +39180,7 @@
       <c r="C113" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="D113" s="61" t="s">
+      <c r="D113" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42344,7 +39194,7 @@
       <c r="C114" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="D114" s="61" t="s">
+      <c r="D114" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42358,7 +39208,7 @@
       <c r="C115" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="D115" s="61" t="s">
+      <c r="D115" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42372,7 +39222,7 @@
       <c r="C116" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="D116" s="61" t="s">
+      <c r="D116" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42386,7 +39236,7 @@
       <c r="C117" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="D117" s="61" t="s">
+      <c r="D117" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42400,7 +39250,7 @@
       <c r="C118" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="D118" s="61" t="s">
+      <c r="D118" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42414,7 +39264,7 @@
       <c r="C119" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="D119" s="61" t="s">
+      <c r="D119" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42428,7 +39278,7 @@
       <c r="C120" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="D120" s="61" t="s">
+      <c r="D120" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42442,7 +39292,7 @@
       <c r="C121" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D121" s="61" t="s">
+      <c r="D121" s="60" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -42456,7 +39306,7 @@
       <c r="C122" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="D122" s="61" t="s">
+      <c r="D122" s="60" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -42470,7 +39320,7 @@
       <c r="C123" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D123" s="61" t="s">
+      <c r="D123" s="60" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -42484,7 +39334,7 @@
       <c r="C124" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D124" s="61" t="s">
+      <c r="D124" s="60" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -42498,7 +39348,7 @@
       <c r="C125" s="8">
         <v>999</v>
       </c>
-      <c r="D125" s="61" t="s">
+      <c r="D125" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -42512,7 +39362,7 @@
       <c r="C126" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="D126" s="61" t="s">
+      <c r="D126" s="60" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -42526,7 +39376,7 @@
       <c r="C127" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="D127" s="61" t="s">
+      <c r="D127" s="60" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -42540,7 +39390,7 @@
       <c r="C128" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="D128" s="61" t="s">
+      <c r="D128" s="60" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -42554,7 +39404,7 @@
       <c r="C129" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="D129" s="61" t="s">
+      <c r="D129" s="60" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -42568,7 +39418,7 @@
       <c r="C130" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="D130" s="61" t="s">
+      <c r="D130" s="60" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -42582,7 +39432,7 @@
       <c r="C131" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="D131" s="61" t="s">
+      <c r="D131" s="60" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -42596,7 +39446,7 @@
       <c r="C132" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="D132" s="61" t="s">
+      <c r="D132" s="60" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -42610,7 +39460,7 @@
       <c r="C133" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="D133" s="61" t="s">
+      <c r="D133" s="60" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -42624,7 +39474,7 @@
       <c r="C134" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D134" s="61" t="s">
+      <c r="D134" s="60" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -42638,7 +39488,7 @@
       <c r="C135" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D135" s="61" t="s">
+      <c r="D135" s="60" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -42652,7 +39502,7 @@
       <c r="C136" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D136" s="61" t="s">
+      <c r="D136" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -42666,7 +39516,7 @@
       <c r="C137" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D137" s="61" t="s">
+      <c r="D137" s="60" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -45001,8 +41851,8 @@
   <dimension ref="A1:J276"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <pane ySplit="4" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C282" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45019,19 +41869,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="67"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
     </row>
@@ -48052,7 +44902,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="46" t="s">
         <v>425</v>
       </c>
@@ -52570,22 +49420,22 @@
         <v>783</v>
       </c>
       <c r="C276" s="46" t="s">
-        <v>1248</v>
+        <v>1323</v>
       </c>
       <c r="D276" s="46" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E276" s="49" t="s">
-        <v>1247</v>
+        <v>1321</v>
       </c>
       <c r="F276" s="49" t="s">
-        <v>1250</v>
+        <v>1322</v>
       </c>
       <c r="G276" s="46" t="s">
-        <v>336</v>
+        <v>781</v>
       </c>
       <c r="H276" s="46" t="s">
-        <v>739</v>
+        <v>442</v>
       </c>
       <c r="I276" s="46"/>
     </row>
@@ -52606,24 +49456,25 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6C01C2-79F9-4E77-83E6-DBE190C885DC}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="61.36328125" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>1204</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -52638,7 +49489,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -52648,183 +49499,388 @@
       <c r="B7" s="10" t="s">
         <v>1212</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="59">
         <v>44565</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <v>44565</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="58">
         <v>44565</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="58">
         <v>43983</v>
       </c>
-      <c r="D11" s="58"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="58">
         <v>43739</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="58">
         <v>44562</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="58">
         <v>44562</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="C14" s="7" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="58">
         <v>43739</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="58">
         <v>44562</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="58">
         <v>44562</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="58">
         <v>44563</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="58">
         <v>44565</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="B20" s="59">
-        <v>44837</v>
-      </c>
+      <c r="B20" s="58">
+        <v>44684</v>
+      </c>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="B21" s="59">
-        <v>44837</v>
-      </c>
+      <c r="B21" s="58">
+        <v>44684</v>
+      </c>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="B22" s="59">
-        <v>44837</v>
-      </c>
+      <c r="B22" s="58">
+        <v>44309</v>
+      </c>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="B23" s="59">
-        <v>44838</v>
-      </c>
+      <c r="B23" s="58">
+        <v>44682</v>
+      </c>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="B24" s="59">
-        <v>44835</v>
-      </c>
+      <c r="B24" s="58">
+        <v>44682</v>
+      </c>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="B25" s="59">
-        <v>44835</v>
-      </c>
+      <c r="B25" s="58">
+        <v>44684</v>
+      </c>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="B26" s="59">
-        <v>44835</v>
-      </c>
+      <c r="B26" s="58">
+        <v>44684</v>
+      </c>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="B27" s="59">
-        <v>44837</v>
+      <c r="B27" s="58">
+        <v>44652</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B28" s="58">
+        <v>45017</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B29" s="58">
+        <v>45019</v>
+      </c>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B30" s="58">
+        <v>45017</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B31" s="58">
+        <v>45017</v>
+      </c>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B32" s="58">
+        <v>45017</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B33" s="58">
+        <v>45017</v>
+      </c>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B34" s="58">
+        <v>45018</v>
+      </c>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B35" s="58">
+        <v>45017</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B36" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B37" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B38" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B39" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B40" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B41" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B42" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B43" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B44" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B45" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B46" s="58">
+        <v>45028</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B47" s="58">
+        <v>45047</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:C46" xr:uid="{2B6C01C2-79F9-4E77-83E6-DBE190C885DC}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" location="Contents!A1" display="Return to Contents Page" xr:uid="{46F0A1A6-6F27-4AB6-8BE6-033921C5C876}"/>
   </hyperlinks>

--- a/SWD User Guide.xlsx
+++ b/SWD User Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Finance\Shared Area\BNSSG - BI\10 Infrastructure\04 - Data Management\System Wide Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5332C2FF-C414-4944-8BAB-2F2D66F53AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0DD04E-3F43-4131-8340-6515BFAF8EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="20" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6957" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="1492">
   <si>
     <t>pod_l2a</t>
   </si>
@@ -5144,6 +5144,120 @@
       </rPr>
       <t xml:space="preserve"> is before or on the search date</t>
     </r>
+  </si>
+  <si>
+    <t>sup_metric_43</t>
+  </si>
+  <si>
+    <t>sup_metric_44</t>
+  </si>
+  <si>
+    <t>sup_metric_45</t>
+  </si>
+  <si>
+    <t>sup_metric_46</t>
+  </si>
+  <si>
+    <t>sup_metric_47</t>
+  </si>
+  <si>
+    <t>sup_metric_48</t>
+  </si>
+  <si>
+    <t>sup_metric_49</t>
+  </si>
+  <si>
+    <t>sup_metric_50</t>
+  </si>
+  <si>
+    <t>sup_metric_51</t>
+  </si>
+  <si>
+    <t>sup_metric_52</t>
+  </si>
+  <si>
+    <t>sup_metric_53</t>
+  </si>
+  <si>
+    <t>sup_metric_54</t>
+  </si>
+  <si>
+    <t>sup_metric_55</t>
+  </si>
+  <si>
+    <t>sup_metric_56</t>
+  </si>
+  <si>
+    <t>Required SMR</t>
+  </si>
+  <si>
+    <t>SMR Complete</t>
+  </si>
+  <si>
+    <t>Required Diabetes Review</t>
+  </si>
+  <si>
+    <t>Diabetes Review Complete</t>
+  </si>
+  <si>
+    <t>Required HF Review</t>
+  </si>
+  <si>
+    <t>HF Review Complete</t>
+  </si>
+  <si>
+    <t>Required COPD Review</t>
+  </si>
+  <si>
+    <t>COPD Review Complete</t>
+  </si>
+  <si>
+    <t>Required Respect Form</t>
+  </si>
+  <si>
+    <t>Completed Respect Form</t>
+  </si>
+  <si>
+    <t>Required Flu Vax</t>
+  </si>
+  <si>
+    <t>Had Flu Vax</t>
+  </si>
+  <si>
+    <t>Required PCV</t>
+  </si>
+  <si>
+    <t>Had PCV Vax</t>
+  </si>
+  <si>
+    <t>Attributes and activity for Merrywood (L81094) are not present in submission due to merger with Crest (L81095) under new name Downton Rd (retaining code L81095), but volumes for L81905 not reflective of expected increase.</t>
+  </si>
+  <si>
+    <t>Jan 24</t>
+  </si>
+  <si>
+    <t>volume of attribute records for L81905 only ~76% of expected combined volume. For contacts POD data in activity dataset, volume is only 50% of that expected.  
+Other activity PODs (measurements, prescriptions) look more reasonable.  Raised with One Care.</t>
+  </si>
+  <si>
+    <t>Contacts data for ARI (Acute Respiratory Infection) slots has been submitted for October 23 to January 24 (inclusive) in addition to normal contacts submission, meaning records will be double counted if not handled.</t>
+  </si>
+  <si>
+    <t>Oct 23 - Jan 24</t>
+  </si>
+  <si>
+    <t>activity identifiable by filtering on value 'ari' in spec_l1a column of swd.activity table.
+One Care contacted to clarify and swd lead users consulted on best way to handle in dataset.</t>
+  </si>
+  <si>
+    <t>‘unknown’ status records showing against the ‘Smoking’ attribute have increased from 70% to 90% since a change in the underlying derivation logic in April 2023.</t>
+  </si>
+  <si>
+    <t>Apr 23 - Dec 23</t>
+  </si>
+  <si>
+    <t>Fix applied in Jan 24 data - unknown records now showing at only 52% of total records.
+Action with One Care for historical data to be submitted to make consistent over time.  Issue to be kept open until complete.</t>
   </si>
 </sst>
 </file>
@@ -5389,7 +5503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5590,6 +5704,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19843,7 +19960,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21648,11 +21765,11 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11" filterMode="1"/>
-  <dimension ref="A1:K622"/>
+  <dimension ref="A1:K623"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22710,47 +22827,98 @@
         <v>1379</v>
       </c>
       <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="H38" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I38" s="37">
+        <v>45102</v>
+      </c>
       <c r="J38" s="35"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+    <row r="39" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="35">
+        <v>34</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I39" s="37">
+        <v>45316</v>
+      </c>
       <c r="J39" s="35"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+    <row r="40" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="35">
+        <v>35</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>1485</v>
+      </c>
       <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="H40" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I40" s="37">
+        <v>45345</v>
+      </c>
       <c r="J40" s="35"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+    <row r="41" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="79">
+        <v>36</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>832</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1488</v>
+      </c>
       <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
+      <c r="H41" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I41" s="37">
+        <v>45345</v>
+      </c>
       <c r="J41" s="35"/>
       <c r="K41" s="3"/>
     </row>
@@ -26057,16 +26225,16 @@
       <c r="K295" s="3"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
+      <c r="A296" s="35"/>
+      <c r="B296" s="35"/>
+      <c r="C296" s="35"/>
+      <c r="D296" s="35"/>
+      <c r="E296" s="35"/>
+      <c r="F296" s="35"/>
+      <c r="G296" s="35"/>
+      <c r="H296" s="35"/>
+      <c r="I296" s="35"/>
+      <c r="J296" s="35"/>
       <c r="K296" s="3"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
@@ -30087,14 +30255,14 @@
       <c r="K605" s="3"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A606" s="3"/>
-      <c r="B606" s="3"/>
-      <c r="C606" s="3"/>
-      <c r="D606" s="3"/>
-      <c r="E606" s="3"/>
-      <c r="F606" s="3"/>
-      <c r="G606" s="3"/>
-      <c r="H606" s="3"/>
+      <c r="A606" s="2"/>
+      <c r="B606" s="2"/>
+      <c r="C606" s="2"/>
+      <c r="D606" s="2"/>
+      <c r="E606" s="2"/>
+      <c r="F606" s="2"/>
+      <c r="G606" s="2"/>
+      <c r="H606" s="2"/>
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
       <c r="K606" s="3"/>
@@ -30307,6 +30475,19 @@
       <c r="J622" s="2"/>
       <c r="K622" s="3"/>
     </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A623" s="3"/>
+      <c r="B623" s="3"/>
+      <c r="C623" s="3"/>
+      <c r="D623" s="3"/>
+      <c r="E623" s="3"/>
+      <c r="F623" s="3"/>
+      <c r="G623" s="3"/>
+      <c r="H623" s="3"/>
+      <c r="I623" s="2"/>
+      <c r="J623" s="2"/>
+      <c r="K623" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:J34" xr:uid="{00000000-0009-0000-0000-00000A000000}">
     <filterColumn colId="7">
@@ -30319,7 +30500,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:A295">
+  <conditionalFormatting sqref="A5:A296">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"(blank)"</formula>
     </cfRule>
@@ -45050,11 +45231,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J276"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F288" sqref="F288"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48106,7 +48287,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="46" t="s">
         <v>421</v>
       </c>
@@ -52642,6 +52823,356 @@
         <v>437</v>
       </c>
       <c r="I276" s="46"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A277" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B277" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C277" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D277" s="46" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E277" s="49" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F277" s="49"/>
+      <c r="G277" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H277" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I277" s="46"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A278" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B278" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C278" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D278" s="46" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E278" s="49" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F278" s="49"/>
+      <c r="G278" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H278" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I278" s="46"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A279" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B279" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C279" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D279" s="46" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E279" s="49" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F279" s="49"/>
+      <c r="G279" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H279" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I279" s="46"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A280" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B280" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C280" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D280" s="46" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E280" s="49" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F280" s="49"/>
+      <c r="G280" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H280" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I280" s="46"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A281" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B281" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C281" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D281" s="46" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E281" s="49" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F281" s="49"/>
+      <c r="G281" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H281" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I281" s="46"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A282" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B282" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C282" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D282" s="46" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E282" s="49" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F282" s="49"/>
+      <c r="G282" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H282" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I282" s="46"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A283" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B283" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C283" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D283" s="46" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E283" s="49" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F283" s="49"/>
+      <c r="G283" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H283" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I283" s="46"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A284" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B284" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C284" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D284" s="46" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E284" s="49" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F284" s="49"/>
+      <c r="G284" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H284" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I284" s="46"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A285" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B285" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C285" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D285" s="46" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E285" s="49" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F285" s="49"/>
+      <c r="G285" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H285" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I285" s="46"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A286" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B286" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C286" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D286" s="46" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E286" s="49" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F286" s="49"/>
+      <c r="G286" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H286" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I286" s="46"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A287" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B287" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C287" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D287" s="46" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E287" s="49" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F287" s="49"/>
+      <c r="G287" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H287" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I287" s="46"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A288" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B288" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C288" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D288" s="46" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E288" s="49" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F288" s="49"/>
+      <c r="G288" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H288" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I288" s="46"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A289" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B289" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C289" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D289" s="46" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E289" s="49" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F289" s="49"/>
+      <c r="G289" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H289" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I289" s="46"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A290" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B290" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C290" s="46" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D290" s="46" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E290" s="49" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F290" s="49"/>
+      <c r="G290" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="H290" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I290" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I276" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
@@ -52649,6 +53180,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" location="Contents!A1" display="Return to Contents Page" xr:uid="{45CDDDC5-A776-469F-913A-D672B46530B9}"/>
   </hyperlinks>
